--- a/jyx2/Assets/Mods/JYX2/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/物品.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\jynew-20230510\jyx2\Assets\Mods\JYX2\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC89217D-229A-438A-88BD-D1E15F11201F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9BA2F8-AB16-4D54-B123-56D48848F4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="4740" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="2415" windowWidth="32040" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="661">
   <si>
     <t>Id</t>
   </si>
@@ -316,1255 +316,406 @@
     <t>练出物品（练出物品ID，需要物品ID,需要物品数量）</t>
   </si>
   <si>
-    <t>康倍特</t>
-  </si>
-  <si>
     <t>康</t>
   </si>
   <si>
-    <t>活性饮料，迅速补充你的体力</t>
-  </si>
-  <si>
-    <t>精气丸</t>
-  </si>
-  <si>
     <t>精气丸</t>
   </si>
   <si>
-    <t>中药提炼，可恢复些许体力</t>
-  </si>
-  <si>
-    <t>白岚氏鸡精</t>
-  </si>
-  <si>
     <t>白岚</t>
   </si>
   <si>
-    <t>生命虚弱时赶紧饮用</t>
-  </si>
-  <si>
-    <t>小还丹</t>
-  </si>
-  <si>
     <t>小</t>
   </si>
   <si>
-    <t>疗伤药丸，可恢复少许生命</t>
-  </si>
-  <si>
-    <t>玉洞黑石丹</t>
-  </si>
-  <si>
     <t>玉洞</t>
   </si>
   <si>
-    <t>崆峒派所有，可恢复些许生命</t>
-  </si>
-  <si>
-    <t>玉真散</t>
-  </si>
-  <si>
     <t>玉真</t>
   </si>
   <si>
-    <t>华山派所有，可恢复些许生命</t>
-  </si>
-  <si>
-    <t>三黄宝腊丹</t>
-  </si>
-  <si>
     <t>三</t>
   </si>
   <si>
-    <t>武当派所有，可恢复些许生命</t>
-  </si>
-  <si>
-    <t>玉灵散</t>
-  </si>
-  <si>
     <t>玉灵</t>
   </si>
   <si>
-    <t>少林寺之伤科圣药，可恢复生命</t>
-  </si>
-  <si>
-    <t>天香断续胶</t>
-  </si>
-  <si>
     <t>天香断</t>
   </si>
   <si>
-    <t>恒山派所有，能恢复许多生命</t>
-  </si>
-  <si>
-    <t>黑玉断续膏</t>
-  </si>
-  <si>
     <t>黑玉断</t>
   </si>
   <si>
-    <t>疗伤圣药，可补满生命</t>
-  </si>
-  <si>
-    <t>金牛运功散</t>
-  </si>
-  <si>
     <t>金牛运</t>
   </si>
   <si>
-    <t>内伤别怕，用后可将人轻易举起</t>
-  </si>
-  <si>
     <t>人</t>
   </si>
   <si>
-    <t>天然补品，可恢复少许内力</t>
-  </si>
-  <si>
-    <t>白云熊胆丸</t>
-  </si>
-  <si>
     <t>白云熊胆</t>
   </si>
   <si>
-    <t>恒山派所有，可恢复些许内力</t>
-  </si>
-  <si>
-    <t>九花玉露丸</t>
-  </si>
-  <si>
     <t>九</t>
   </si>
   <si>
-    <t>桃花岛所有，可恢复内力及解毒</t>
-  </si>
-  <si>
-    <t>九转灵宝丸</t>
-  </si>
-  <si>
-    <t>全真教所有，可恢复内力</t>
-  </si>
-  <si>
-    <t>田七鲨胆散</t>
-  </si>
-  <si>
     <t>田七</t>
   </si>
   <si>
-    <t>桃花岛所制，可恢复许多内力</t>
-  </si>
-  <si>
-    <t>九转熊蛇丸</t>
-  </si>
-  <si>
-    <t>逍遥派疗伤圣药，可补满内力</t>
-  </si>
-  <si>
-    <t>无常丹</t>
-  </si>
-  <si>
     <t>无</t>
   </si>
   <si>
-    <t>桃花岛所有，可恢复生命及内力</t>
-  </si>
-  <si>
-    <t>镇心理气丸</t>
-  </si>
-  <si>
     <t>镇心理</t>
   </si>
   <si>
-    <t>名家配制，迅速恢复内力及生命</t>
-  </si>
-  <si>
-    <t>生生造化丹</t>
-  </si>
-  <si>
     <t>生生造</t>
   </si>
   <si>
-    <t>疗伤圣药，有起死回生之神效</t>
-  </si>
-  <si>
-    <t>天王保命丹</t>
-  </si>
-  <si>
     <t>天王保</t>
   </si>
   <si>
-    <t>神奇丹药，有起死回生之神效</t>
-  </si>
-  <si>
-    <t>宝济丸</t>
-  </si>
-  <si>
     <t>宝</t>
   </si>
   <si>
-    <t>肚内疼痛，疑似中毒请用</t>
-  </si>
-  <si>
-    <t>黄连解毒丸</t>
-  </si>
-  <si>
     <t>黄连</t>
   </si>
   <si>
-    <t>民间常见之解毒丸，由黄连所制</t>
-  </si>
-  <si>
-    <t>天心解毒丹</t>
-  </si>
-  <si>
     <t>天心解毒</t>
   </si>
   <si>
-    <t>武当派所制之解毒丸</t>
-  </si>
-  <si>
-    <t>回阳五龙膏</t>
-  </si>
-  <si>
     <t>回</t>
   </si>
   <si>
-    <t>崆峒派所有，可解毒</t>
-  </si>
-  <si>
-    <t>牛黄血竭丹</t>
-  </si>
-  <si>
     <t>牛黄血竭丹</t>
   </si>
   <si>
-    <t>胡青牛秘方之解毒灵药</t>
-  </si>
-  <si>
-    <t>六阳正气丹</t>
-  </si>
-  <si>
     <t>六阳正气丹</t>
   </si>
   <si>
-    <t>少林寺所有，可医治奇毒</t>
-  </si>
-  <si>
-    <t>朱晴冰蟾</t>
-  </si>
-  <si>
     <t>朱晴冰</t>
   </si>
   <si>
-    <t>产于雪山，可反复吸取剧毒</t>
-  </si>
-  <si>
-    <t>伏苓首乌丸</t>
-  </si>
-  <si>
     <t>伏苓</t>
   </si>
   <si>
-    <t>千年奇药，可提高生命最大值</t>
-  </si>
-  <si>
-    <t>千年灵芝</t>
-  </si>
-  <si>
     <t>千</t>
   </si>
   <si>
-    <t>珍贵补品，可提高生命最大值</t>
-  </si>
-  <si>
-    <t>蛇胆</t>
-  </si>
-  <si>
     <t>蛇</t>
   </si>
   <si>
-    <t>毒蛇之胆，可提高内力最大值</t>
-  </si>
-  <si>
-    <t>五宝花蜜酒</t>
-  </si>
-  <si>
     <t>五宝</t>
   </si>
   <si>
-    <t>五毒调制而成，提高内力最大值</t>
-  </si>
-  <si>
-    <t>腊八粥</t>
-  </si>
-  <si>
     <t>腊八</t>
   </si>
   <si>
-    <t>珍奇花草制成，提高内力最大值</t>
-  </si>
-  <si>
-    <t>大蟠桃</t>
-  </si>
-  <si>
     <t>大</t>
   </si>
   <si>
-    <t>珍贵异果，可提高内力最大值</t>
-  </si>
-  <si>
-    <t>千年物，提高生命及内力最大值</t>
-  </si>
-  <si>
-    <t>天山雪莲</t>
-  </si>
-  <si>
     <t>天山</t>
   </si>
   <si>
-    <t>珍贵物，提高生命及内力最大值</t>
-  </si>
-  <si>
-    <t>通犀地龙丸</t>
-  </si>
-  <si>
     <t>通</t>
   </si>
   <si>
-    <t>西域异兽所制，服食后百毒不侵</t>
-  </si>
-  <si>
-    <t>千年冰蚕</t>
-  </si>
-  <si>
-    <t>毒性极高，可使练毒者功力大增</t>
-  </si>
-  <si>
-    <t>莽牯朱蛤</t>
-  </si>
-  <si>
     <t>莽牯朱蛤</t>
   </si>
   <si>
-    <t>万毒之王，服食之后百毒不侵</t>
-  </si>
-  <si>
-    <t>紫霞秘籍</t>
-  </si>
-  <si>
     <t>紫霞秘笈</t>
   </si>
   <si>
-    <t>华山派修行内功之心法</t>
-  </si>
-  <si>
-    <t>小无相功</t>
-  </si>
-  <si>
-    <t>逍遥派之内功心法</t>
-  </si>
-  <si>
-    <t>十八泥偶</t>
-  </si>
-  <si>
     <t>十</t>
   </si>
   <si>
-    <t>记载少林罗汉伏魔神功泥偶</t>
-  </si>
-  <si>
-    <t>神照经</t>
-  </si>
-  <si>
     <t>神照经</t>
   </si>
   <si>
-    <t>修习内功之奥妙法门</t>
-  </si>
-  <si>
-    <t>易筋经</t>
-  </si>
-  <si>
     <t>易筋经</t>
   </si>
   <si>
-    <t>少林寺修行内功之无上心法</t>
-  </si>
-  <si>
-    <t>洗髓经</t>
-  </si>
-  <si>
     <t>洗</t>
   </si>
   <si>
-    <t>失传之内功宝典</t>
-  </si>
-  <si>
-    <t>梯云纵心法</t>
-  </si>
-  <si>
     <t>梯云纵</t>
   </si>
   <si>
-    <t>武当派修行轻功之心法</t>
-  </si>
-  <si>
-    <t>神行百变</t>
-  </si>
-  <si>
     <t>神行百变</t>
   </si>
   <si>
-    <t>增加轻功能力的武功秘籍</t>
-  </si>
-  <si>
-    <t>凌波微步</t>
-  </si>
-  <si>
     <t>凌波</t>
   </si>
   <si>
-    <t>逍遥派绝学，可增强轻功能力</t>
-  </si>
-  <si>
-    <t>子午针灸经</t>
-  </si>
-  <si>
     <t>子</t>
   </si>
   <si>
-    <t>探讨穴道，经脉之医书</t>
-  </si>
-  <si>
     <t>1,1|3,2|22,3|4,4|16,5</t>
   </si>
   <si>
-    <t>华陀内昭图</t>
-  </si>
-  <si>
     <t>华陀内昭</t>
   </si>
   <si>
-    <t>医学宝典</t>
-  </si>
-  <si>
     <t>5,6|6,7|14,8|15,9|8,10</t>
   </si>
   <si>
-    <t>胡青牛医书</t>
-  </si>
-  <si>
     <t>胡</t>
   </si>
   <si>
-    <t>蝶谷医仙医术精华之记录</t>
-  </si>
-  <si>
     <t>25,11|7,12|12,13|9,14|17,15</t>
   </si>
   <si>
-    <t>五毒秘传</t>
-  </si>
-  <si>
     <t>五毒</t>
   </si>
   <si>
-    <t>五毒教秘籍，记载用毒解毒方法</t>
-  </si>
-  <si>
     <t>22,3|23,6|24,9</t>
   </si>
   <si>
-    <t>毒经</t>
-  </si>
-  <si>
     <t>毒</t>
   </si>
   <si>
-    <t>毒仙王难姑所著之用毒宝典</t>
-  </si>
-  <si>
     <t>22,3|23,6|24,9|25,12</t>
   </si>
   <si>
-    <t>药王神篇</t>
-  </si>
-  <si>
     <t>药王神篇</t>
   </si>
   <si>
-    <t>毒手药王之毕生心血著作</t>
-  </si>
-  <si>
     <t>22,3|23,6|24,9|25,12|26,15</t>
   </si>
   <si>
-    <t>铁掌拳谱</t>
-  </si>
-  <si>
     <t>铁</t>
   </si>
   <si>
-    <t>铁掌帮之扬名绝学</t>
-  </si>
-  <si>
-    <t>七伤拳谱</t>
-  </si>
-  <si>
     <t>七</t>
   </si>
   <si>
-    <t>崆峒派之独门拳法</t>
-  </si>
-  <si>
-    <t>天山六阳掌</t>
-  </si>
-  <si>
-    <t>逍遥派之掌法秘籍</t>
-  </si>
-  <si>
-    <t>玄冥神掌</t>
-  </si>
-  <si>
     <t>玄冥神掌</t>
   </si>
   <si>
-    <t>失传已久的武林绝学</t>
-  </si>
-  <si>
-    <t>太极拳经</t>
-  </si>
-  <si>
     <t>太极拳经</t>
   </si>
   <si>
-    <t>武当派之新创绝学，四两拨千斤</t>
-  </si>
-  <si>
-    <t>龙象般若功</t>
-  </si>
-  <si>
     <t>龙</t>
   </si>
   <si>
-    <t>密宗至高无上之护法神功</t>
-  </si>
-  <si>
-    <t>太玄经</t>
-  </si>
-  <si>
     <t>太玄经</t>
   </si>
   <si>
-    <t>无人可解之神秘武功</t>
-  </si>
-  <si>
-    <t>黯然销魂掌</t>
-  </si>
-  <si>
     <t>黯</t>
   </si>
   <si>
-    <t>杨过所创之强力掌法</t>
-  </si>
-  <si>
-    <t>降龙十八掌</t>
-  </si>
-  <si>
     <t>降龙</t>
   </si>
   <si>
-    <t>丐帮镇帮之宝</t>
-  </si>
-  <si>
-    <t>北冥神功</t>
-  </si>
-  <si>
     <t>北</t>
   </si>
   <si>
-    <t>逍遥派绝学，吸人内力化为己用</t>
-  </si>
-  <si>
-    <t>吸星大法</t>
-  </si>
-  <si>
     <t>吸</t>
   </si>
   <si>
-    <t>可吸敌人内力化为己用</t>
-  </si>
-  <si>
-    <t>神木王鼎</t>
-  </si>
-  <si>
     <t>神木王鼎</t>
   </si>
   <si>
-    <t>星宿海掌门练化功大法之物</t>
-  </si>
-  <si>
-    <t>六脉神剑谱</t>
-  </si>
-  <si>
     <t>六脉神剑</t>
   </si>
   <si>
-    <t>大理段家之超强剑气绝学</t>
-  </si>
-  <si>
-    <t>松风剑谱</t>
-  </si>
-  <si>
     <t>松</t>
   </si>
   <si>
-    <t>四川青城之剑法</t>
-  </si>
-  <si>
-    <t>泰山十八盘</t>
-  </si>
-  <si>
     <t>泰山</t>
   </si>
   <si>
-    <t>泰山派高深之剑法</t>
-  </si>
-  <si>
-    <t>回峰落雁剑法</t>
-  </si>
-  <si>
-    <t>衡山派千变万化之剑法</t>
-  </si>
-  <si>
-    <t>七星剑谱</t>
-  </si>
-  <si>
-    <t>王重阳悟于北斗七星之剑法</t>
-  </si>
-  <si>
-    <t>两仪剑法</t>
-  </si>
-  <si>
     <t>两仪剑</t>
   </si>
   <si>
-    <t>昆仑派之独门绝学</t>
-  </si>
-  <si>
-    <t>金蛇秘籍</t>
-  </si>
-  <si>
     <t>金蛇</t>
   </si>
   <si>
-    <t>金蛇郎君观蛇时悟出之剑法</t>
-  </si>
-  <si>
-    <t>玉女素心剑法</t>
-  </si>
-  <si>
     <t>玉女</t>
   </si>
   <si>
-    <t>古墓派轻巧之剑法</t>
-  </si>
-  <si>
-    <t>苗家剑法</t>
-  </si>
-  <si>
     <t>苗</t>
   </si>
   <si>
-    <t>苗人凤家传剑法</t>
-  </si>
-  <si>
-    <t>太极剑法</t>
-  </si>
-  <si>
     <t>太极剑</t>
   </si>
   <si>
-    <t>张三丰新创之剑法</t>
-  </si>
-  <si>
-    <t>达摩剑谱</t>
-  </si>
-  <si>
     <t>达</t>
   </si>
   <si>
-    <t>少林七十二绝技之一</t>
-  </si>
-  <si>
-    <t>玄铁剑法</t>
-  </si>
-  <si>
     <t>玄铁</t>
   </si>
   <si>
-    <t>杨过悟于剑魔所留之秘籍</t>
-  </si>
-  <si>
-    <t>辟邪剑谱</t>
-  </si>
-  <si>
     <t>辟</t>
   </si>
   <si>
-    <t>剑法阴损毒辣，修习者断子绝孙</t>
-  </si>
-  <si>
-    <t>独孤九剑</t>
-  </si>
-  <si>
     <t>独</t>
   </si>
   <si>
-    <t>独孤求败所创之高深剑法</t>
-  </si>
-  <si>
-    <t>血刀经</t>
-  </si>
-  <si>
     <t>血刀</t>
   </si>
   <si>
-    <t>可修练血刀刀法</t>
-  </si>
-  <si>
-    <t>火焰刀法</t>
-  </si>
-  <si>
     <t>火焰</t>
   </si>
   <si>
-    <t>西域大轮寺刀法绝学</t>
-  </si>
-  <si>
-    <t>反两仪刀法</t>
-  </si>
-  <si>
     <t>反两仪刀</t>
   </si>
   <si>
-    <t>华山派武学刀法</t>
-  </si>
-  <si>
-    <t>狂风刀法</t>
-  </si>
-  <si>
     <t>狂</t>
   </si>
   <si>
-    <t>速度极快之刀法</t>
-  </si>
-  <si>
-    <t>胡家刀法</t>
-  </si>
-  <si>
-    <t>胡一刀家传之刀谱</t>
-  </si>
-  <si>
-    <t>霹雳刀法</t>
-  </si>
-  <si>
     <t>霹</t>
   </si>
   <si>
-    <t>霹雳三绝中之刀谱</t>
-  </si>
-  <si>
-    <t>毒龙鞭法</t>
-  </si>
-  <si>
-    <t>轻盈灵巧，千变万化之鞭法</t>
-  </si>
-  <si>
-    <t>黄沙万里鞭法</t>
-  </si>
-  <si>
     <t>黄沙</t>
   </si>
   <si>
-    <t>相传至西域之鞭法</t>
-  </si>
-  <si>
-    <t>满天花雨</t>
-  </si>
-  <si>
     <t>满天花雨</t>
   </si>
   <si>
-    <t>增加暗器能力</t>
-  </si>
-  <si>
-    <t>霹雳秘籍</t>
-  </si>
-  <si>
-    <t>霹雳三绝中之暗器总诀</t>
-  </si>
-  <si>
     <t>101,10</t>
   </si>
   <si>
-    <t>含沙射影</t>
-  </si>
-  <si>
     <t>含</t>
   </si>
   <si>
-    <t>五毒教之暗器总诀</t>
-  </si>
-  <si>
-    <t>左右互搏之术</t>
-  </si>
-  <si>
     <t>左右</t>
   </si>
   <si>
-    <t>修习后可攻击两次</t>
-  </si>
-  <si>
-    <t>乾坤大挪移</t>
-  </si>
-  <si>
     <t>干坤</t>
   </si>
   <si>
-    <t>明教宝典，修行后可增加防御力</t>
-  </si>
-  <si>
-    <t>葵花宝典</t>
-  </si>
-  <si>
     <t>葵花宝</t>
   </si>
   <si>
-    <t>道家修行内功之无上心法</t>
-  </si>
-  <si>
-    <t>九阴真经</t>
-  </si>
-  <si>
-    <t>至高无上之武功宝典</t>
-  </si>
-  <si>
-    <t>九阳真经</t>
-  </si>
-  <si>
-    <t>飞蝗石</t>
-  </si>
-  <si>
     <t>飞蝗石</t>
   </si>
   <si>
-    <t>普通暗器</t>
-  </si>
-  <si>
-    <t>金钱镖</t>
-  </si>
-  <si>
     <t>金钱镖</t>
   </si>
   <si>
-    <t>飞刀</t>
-  </si>
-  <si>
     <t>飞刀</t>
   </si>
   <si>
-    <t>菩提子</t>
-  </si>
-  <si>
     <t>菩提子</t>
   </si>
   <si>
-    <t>金蛇锥</t>
-  </si>
-  <si>
-    <t>金蛇郎君之独门暗器</t>
-  </si>
-  <si>
-    <t>霹雳弹</t>
-  </si>
-  <si>
-    <t>霹雳三绝中之火爆暗器</t>
-  </si>
-  <si>
-    <t>毒蒺黎</t>
-  </si>
-  <si>
-    <t>含毒之暗器</t>
-  </si>
-  <si>
-    <t>玉蜂针</t>
-  </si>
-  <si>
     <t>玉蜂针</t>
   </si>
   <si>
-    <t>古墓派暗器，含蜂毒</t>
-  </si>
-  <si>
-    <t>冰魄银针</t>
-  </si>
-  <si>
     <t>冰</t>
   </si>
   <si>
-    <t>古墓派暗器，含剧毒</t>
-  </si>
-  <si>
-    <t>黑血神针</t>
-  </si>
-  <si>
     <t>黑血神针</t>
   </si>
   <si>
-    <t>日月神教所有，含毒之暗器</t>
-  </si>
-  <si>
-    <t>玄铁剑</t>
-  </si>
-  <si>
-    <t>玄铁铸成之重剑</t>
-  </si>
-  <si>
-    <t>君子剑</t>
-  </si>
-  <si>
     <t>君</t>
   </si>
   <si>
-    <t>剑客适用，适轻盈剑法</t>
-  </si>
-  <si>
-    <t>淑女剑</t>
-  </si>
-  <si>
     <t>淑</t>
   </si>
   <si>
-    <t>倚天剑</t>
-  </si>
-  <si>
     <t>倚天剑</t>
   </si>
   <si>
-    <t>玄铁铸成之剑，武林奇宝</t>
-  </si>
-  <si>
-    <t>金蛇剑</t>
-  </si>
-  <si>
-    <t>金蛇郎君之随身武器</t>
-  </si>
-  <si>
-    <t>凝碧剑</t>
-  </si>
-  <si>
     <t>凝碧剑</t>
   </si>
   <si>
-    <t>剑客适用</t>
-  </si>
-  <si>
-    <t>白龙剑</t>
-  </si>
-  <si>
     <t>白龙</t>
   </si>
   <si>
-    <t>白虹剑</t>
-  </si>
-  <si>
     <t>白虹</t>
   </si>
   <si>
-    <t>周公剑</t>
-  </si>
-  <si>
     <t>周</t>
   </si>
   <si>
-    <t>血刀</t>
-  </si>
-  <si>
-    <t>刀客适用，配合血刀刀法尤佳</t>
-  </si>
-  <si>
-    <t>冷月宝刀</t>
-  </si>
-  <si>
     <t>冷</t>
   </si>
   <si>
-    <t>刀客适用</t>
-  </si>
-  <si>
-    <t>屠龙刀</t>
-  </si>
-  <si>
     <t>屠</t>
   </si>
   <si>
-    <t>武林至尊，宝刀屠龙</t>
-  </si>
-  <si>
-    <t>绿波香露刀</t>
-  </si>
-  <si>
     <t>绿波</t>
   </si>
   <si>
-    <t>霹雳狂刀</t>
-  </si>
-  <si>
-    <t>传说中人物之神秘宝刀</t>
-  </si>
-  <si>
-    <t>软猬甲</t>
-  </si>
-  <si>
     <t>软</t>
   </si>
   <si>
-    <t>生满倒刺，可增加攻防力</t>
-  </si>
-  <si>
-    <t>金丝背心</t>
-  </si>
-  <si>
     <t>金丝背</t>
   </si>
   <si>
-    <t>可增加防御力</t>
-  </si>
-  <si>
-    <t>乌蚕衣</t>
-  </si>
-  <si>
     <t>乌</t>
   </si>
   <si>
-    <t>鳄皮护甲</t>
-  </si>
-  <si>
     <t>鳄</t>
   </si>
   <si>
-    <t>鳄鱼皮所制，可增加防御力</t>
-  </si>
-  <si>
-    <t>玉蜂浆</t>
-  </si>
-  <si>
     <t>玉蜂浆</t>
   </si>
   <si>
-    <t>养蜂者的最爱，可吸引蜂群</t>
-  </si>
-  <si>
-    <t>黑木令牌</t>
-  </si>
-  <si>
     <t>黑木令</t>
   </si>
   <si>
-    <t>黑木崖通行之信物</t>
-  </si>
-  <si>
-    <t>梨花酒</t>
-  </si>
-  <si>
     <t>梨花酒</t>
   </si>
   <si>
-    <t>杭州名酒</t>
-  </si>
-  <si>
-    <t>翡翠杯</t>
-  </si>
-  <si>
     <t>翡</t>
   </si>
   <si>
-    <t>梨花酒若配合此杯饮用风味更佳</t>
-  </si>
-  <si>
-    <t>七宝指环</t>
-  </si>
-  <si>
-    <t>逍遥派掌门之信物</t>
-  </si>
-  <si>
-    <t>神仙美女图</t>
-  </si>
-  <si>
     <t>神仙</t>
   </si>
   <si>
-    <t>女子画像</t>
-  </si>
-  <si>
-    <t>大燕传国玉玺</t>
-  </si>
-  <si>
-    <t>大燕王朝传国之玉玺</t>
-  </si>
-  <si>
-    <t>大燕皇帝世系图表</t>
-  </si>
-  <si>
-    <t>大燕王朝历代皇帝姓名图表</t>
-  </si>
-  <si>
-    <t>赏善罚恶令</t>
-  </si>
-  <si>
     <t>赏善罚</t>
   </si>
   <si>
-    <t>受邀进入侠客岛之信物</t>
-  </si>
-  <si>
-    <t>两页刀法</t>
-  </si>
-  <si>
     <t>两页刀</t>
   </si>
   <si>
-    <t>疑似某刀谱之缺页</t>
-  </si>
-  <si>
-    <t>断肠草</t>
-  </si>
-  <si>
     <t>断</t>
   </si>
   <si>
-    <t>生于情花旁之植物</t>
-  </si>
-  <si>
-    <t>闯王军刀</t>
-  </si>
-  <si>
     <t>闯王军</t>
   </si>
   <si>
-    <t>闯王当年之随身武器</t>
-  </si>
-  <si>
-    <t>玄冰碧火酒</t>
-  </si>
-  <si>
     <t>玄冰</t>
   </si>
   <si>
-    <t>可调和阴阳之毒</t>
-  </si>
-  <si>
-    <t>苗人凤眼毒解药</t>
-  </si>
-  <si>
-    <t>可医治断肠草粉末所制之毒</t>
-  </si>
-  <si>
-    <t>羊羔坐臀</t>
-  </si>
-  <si>
     <t>羊羔坐臀</t>
   </si>
   <si>
-    <t>食物的材料之一</t>
-  </si>
-  <si>
-    <t>小牛腰子</t>
-  </si>
-  <si>
-    <t>小猪耳朵</t>
-  </si>
-  <si>
-    <t>獐腿肉</t>
-  </si>
-  <si>
     <t>獐腿</t>
   </si>
   <si>
-    <t>兔肉</t>
-  </si>
-  <si>
     <t>兔肉</t>
   </si>
   <si>
-    <t>神杖</t>
-  </si>
-  <si>
     <t>神杖</t>
   </si>
   <si>
-    <t>武林盟主之信物</t>
-  </si>
-  <si>
-    <t>飞狐外传</t>
-  </si>
-  <si>
     <t>飞狐外</t>
   </si>
   <si>
-    <t>一本小说</t>
-  </si>
-  <si>
-    <t>雪山飞狐</t>
-  </si>
-  <si>
     <t>雪山</t>
   </si>
   <si>
-    <t>连城诀</t>
-  </si>
-  <si>
     <t>连</t>
   </si>
   <si>
-    <t>天龙八部</t>
-  </si>
-  <si>
     <t>天龙</t>
   </si>
   <si>
-    <t>射雕英雄传</t>
-  </si>
-  <si>
     <t>射</t>
   </si>
   <si>
-    <t>白马啸西风</t>
-  </si>
-  <si>
     <t>白马啸</t>
   </si>
   <si>
-    <t>鹿鼎记</t>
-  </si>
-  <si>
     <t>鹿鼎记</t>
   </si>
   <si>
-    <t>笑傲江湖</t>
-  </si>
-  <si>
     <t>笑傲江湖</t>
   </si>
   <si>
-    <t>书剑恩仇录</t>
-  </si>
-  <si>
     <t>书剑</t>
-  </si>
-  <si>
-    <t>神雕侠侣</t>
   </si>
   <si>
     <r>
@@ -1617,375 +768,121 @@
     </r>
   </si>
   <si>
-    <t>侠客行</t>
-  </si>
-  <si>
     <t>侠</t>
   </si>
   <si>
-    <t>倚天屠龙记</t>
-  </si>
-  <si>
     <t>倚天屠</t>
   </si>
   <si>
-    <t>碧血剑</t>
-  </si>
-  <si>
     <t>碧血剑</t>
   </si>
   <si>
-    <t>鸳鸯刀</t>
-  </si>
-  <si>
     <t>鸳</t>
   </si>
   <si>
-    <t>七心海棠</t>
-  </si>
-  <si>
-    <t>此物炼制后奇毒无比，天下之最</t>
-  </si>
-  <si>
-    <t>可兰经</t>
-  </si>
-  <si>
     <t>可</t>
   </si>
   <si>
-    <t>回教圣书</t>
-  </si>
-  <si>
-    <t>唐诗选辑</t>
-  </si>
-  <si>
     <t>唐诗选辑</t>
   </si>
   <si>
-    <t>普通百姓都懂的唐诗三百首</t>
-  </si>
-  <si>
-    <t>红钥匙</t>
-  </si>
-  <si>
     <t>红钥</t>
   </si>
   <si>
-    <t>梅庄二庄主黑白子给的钥匙</t>
-  </si>
-  <si>
-    <t>橙钥匙</t>
-  </si>
-  <si>
     <t>橙钥</t>
   </si>
   <si>
-    <t>大轮寺番僧身上带的钥匙</t>
-  </si>
-  <si>
-    <t>黄钥匙</t>
-  </si>
-  <si>
     <t>黄钥</t>
   </si>
   <si>
-    <t>孔八拉送的钥匙</t>
-  </si>
-  <si>
-    <t>绿钥匙</t>
-  </si>
-  <si>
     <t>绿钥</t>
   </si>
   <si>
-    <t>孔八拉给的神秘钥匙</t>
-  </si>
-  <si>
-    <t>蓝钥匙</t>
-  </si>
-  <si>
     <t>蓝钥</t>
   </si>
   <si>
-    <t>华山派获得之钥匙</t>
-  </si>
-  <si>
-    <t>紫钥匙</t>
-  </si>
-  <si>
     <t>紫钥</t>
   </si>
   <si>
-    <t>慕容复给的钥匙</t>
-  </si>
-  <si>
-    <t>铁钥匙</t>
-  </si>
-  <si>
-    <t>神秘钥匙</t>
-  </si>
-  <si>
-    <t>铜钥匙</t>
-  </si>
-  <si>
     <t>铜钥</t>
   </si>
   <si>
-    <t>银钥匙</t>
-  </si>
-  <si>
     <t>银钥</t>
   </si>
   <si>
-    <t>金钥匙</t>
-  </si>
-  <si>
     <t>金钥</t>
   </si>
   <si>
-    <t>药材</t>
-  </si>
-  <si>
     <t>药材</t>
   </si>
   <si>
-    <t>各式中药材，制作丹药所需</t>
-  </si>
-  <si>
-    <t>硝石</t>
-  </si>
-  <si>
     <t>硝</t>
   </si>
   <si>
-    <t>可做成火药，制成霹雳弹所需</t>
-  </si>
-  <si>
-    <t>一朵蓝花</t>
-  </si>
-  <si>
     <t>一</t>
   </si>
   <si>
-    <t>形状奇特之蓝色花朵，幽香淡淡</t>
-  </si>
-  <si>
-    <t>银两</t>
-  </si>
-  <si>
     <t>银两</t>
   </si>
   <si>
-    <t>很好用的东西，甚至能使鬼推磨</t>
-  </si>
-  <si>
-    <t>闯王藏宝图</t>
-  </si>
-  <si>
     <t>闯王藏宝</t>
   </si>
   <si>
-    <t>乌笔峰下，坐标（６４，５１）</t>
-  </si>
-  <si>
-    <t>玉笛谁家听落梅</t>
-  </si>
-  <si>
     <t>玉笛谁家</t>
   </si>
   <si>
-    <t>一道佳肴</t>
-  </si>
-  <si>
-    <t>广陵散琴曲</t>
-  </si>
-  <si>
     <t>广</t>
   </si>
   <si>
-    <t>失传之嵇康名曲</t>
-  </si>
-  <si>
-    <t>刘仲甫呕血棋谱</t>
-  </si>
-  <si>
     <t>刘</t>
   </si>
   <si>
-    <t>刘仲甫输给乡下老媪之棋谱</t>
-  </si>
-  <si>
-    <t>张旭率意帖</t>
-  </si>
-  <si>
     <t>张</t>
   </si>
   <si>
-    <t>唐朝书法名家张旭的真迹</t>
-  </si>
-  <si>
-    <t>溪山行旅图</t>
-  </si>
-  <si>
     <t>溪山</t>
   </si>
   <si>
-    <t>北宋范中立之精心杰作</t>
-  </si>
-  <si>
-    <t>一撮金毛</t>
-  </si>
-  <si>
-    <t>金毛狮王谢逊之毛发</t>
-  </si>
-  <si>
-    <t>罗盘</t>
-  </si>
-  <si>
     <t>罗盘</t>
   </si>
   <si>
-    <t>可显示目前之坐标与船之位置</t>
-  </si>
-  <si>
-    <t>带头大哥书信</t>
-  </si>
-  <si>
     <t>带</t>
   </si>
   <si>
-    <t>武林密函，内容关系重大</t>
-  </si>
-  <si>
-    <t>手帕</t>
-  </si>
-  <si>
     <t>手帕</t>
   </si>
   <si>
-    <t>织有鸳鸯的手帕</t>
-  </si>
-  <si>
-    <t>林震南遗言</t>
-  </si>
-  <si>
     <t>林</t>
   </si>
   <si>
-    <t>福威镳局林震南死前留下之书信</t>
-  </si>
-  <si>
-    <t>智慧果</t>
-  </si>
-  <si>
     <t>智慧</t>
   </si>
   <si>
-    <t>相传使用后可增加智能</t>
-  </si>
-  <si>
-    <t>鸳刀</t>
-  </si>
-  <si>
-    <t>相传藏有无敌于天下的秘密</t>
-  </si>
-  <si>
-    <t>鸯刀</t>
-  </si>
-  <si>
     <t>鸯</t>
   </si>
   <si>
-    <t>武林帖</t>
-  </si>
-  <si>
     <t>武</t>
   </si>
   <si>
-    <t>请持此函前往华山参加武林大会</t>
-  </si>
-  <si>
-    <t>明教铁焰令</t>
-  </si>
-  <si>
     <t>明教铁</t>
   </si>
   <si>
-    <t>明教高层人事间的信物</t>
-  </si>
-  <si>
-    <t>一颗头颅</t>
-  </si>
-  <si>
-    <t>成昆的项上人头</t>
-  </si>
-  <si>
-    <t>真武剑</t>
-  </si>
-  <si>
     <t>真</t>
   </si>
   <si>
-    <t>武当派镇教宝剑</t>
-  </si>
-  <si>
-    <t>金盆洗手请帖</t>
-  </si>
-  <si>
     <t>金盆洗</t>
   </si>
   <si>
-    <t>受邀到衡山派观礼之请帖</t>
-  </si>
-  <si>
-    <t>烧刀子</t>
-  </si>
-  <si>
     <t>烧</t>
   </si>
   <si>
-    <t>辛辣之酒</t>
-  </si>
-  <si>
-    <t>铁铲</t>
-  </si>
-  <si>
-    <t>可用来挖掘东西</t>
-  </si>
-  <si>
-    <t>槟榔</t>
-  </si>
-  <si>
     <t>槟</t>
   </si>
   <si>
-    <t>提神醒脑，可提升体力</t>
-  </si>
-  <si>
-    <t>皮衣</t>
-  </si>
-  <si>
     <t>皮衣</t>
   </si>
   <si>
-    <t>”兄弟”常穿服饰，因防御力强</t>
-  </si>
-  <si>
-    <t>无用</t>
-  </si>
-  <si>
-    <t>最后</t>
-  </si>
-  <si>
     <t>最后</t>
-  </si>
-  <si>
-    <t>人参</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>千年人参</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Item</t>
@@ -2001,6 +898,1297 @@
   </si>
   <si>
     <t>L_string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>강배특</t>
+  </si>
+  <si>
+    <t>정기환</t>
+  </si>
+  <si>
+    <t>백란씨계정</t>
+  </si>
+  <si>
+    <t>소환단</t>
+  </si>
+  <si>
+    <t>옥동흑석단</t>
+  </si>
+  <si>
+    <t>옥진산</t>
+  </si>
+  <si>
+    <t>삼황보립단</t>
+  </si>
+  <si>
+    <t>옥령산</t>
+  </si>
+  <si>
+    <t>천향단속교</t>
+  </si>
+  <si>
+    <t>흑옥단속고</t>
+  </si>
+  <si>
+    <t>금우운공산</t>
+  </si>
+  <si>
+    <t>인삼</t>
+  </si>
+  <si>
+    <t>백운웅담환</t>
+  </si>
+  <si>
+    <t>구화옥로환</t>
+  </si>
+  <si>
+    <t>구전영보환</t>
+  </si>
+  <si>
+    <t>전칠사담산</t>
+  </si>
+  <si>
+    <t>무상단</t>
+  </si>
+  <si>
+    <t>진심이기환</t>
+  </si>
+  <si>
+    <t>생생조화단</t>
+  </si>
+  <si>
+    <t>천왕보명단</t>
+  </si>
+  <si>
+    <t>보제환</t>
+  </si>
+  <si>
+    <t>황련해독환</t>
+  </si>
+  <si>
+    <t>천심해독단</t>
+  </si>
+  <si>
+    <t>회양오룡고</t>
+  </si>
+  <si>
+    <t>우황혈갈단</t>
+  </si>
+  <si>
+    <t>육양정기단</t>
+  </si>
+  <si>
+    <t>복령수오환</t>
+  </si>
+  <si>
+    <t>천년영지</t>
+  </si>
+  <si>
+    <t>사담</t>
+  </si>
+  <si>
+    <t>오보화밀주</t>
+  </si>
+  <si>
+    <t>납팔죽</t>
+  </si>
+  <si>
+    <t>대반도</t>
+  </si>
+  <si>
+    <t>쳔년인삼</t>
+  </si>
+  <si>
+    <t>천산설련</t>
+  </si>
+  <si>
+    <t>통서지룡환</t>
+  </si>
+  <si>
+    <t>천년빙잠</t>
+  </si>
+  <si>
+    <t>망고주합</t>
+  </si>
+  <si>
+    <t>자하비급</t>
+  </si>
+  <si>
+    <t>소무상공</t>
+  </si>
+  <si>
+    <t>십팔니우</t>
+  </si>
+  <si>
+    <t>신조경</t>
+  </si>
+  <si>
+    <t>역근경</t>
+  </si>
+  <si>
+    <t>세수경</t>
+  </si>
+  <si>
+    <t>제운종심법</t>
+  </si>
+  <si>
+    <t>신행백변</t>
+  </si>
+  <si>
+    <t>능파미보</t>
+  </si>
+  <si>
+    <t>자오침구경</t>
+  </si>
+  <si>
+    <t>화타내소도</t>
+  </si>
+  <si>
+    <t>호청우의서</t>
+  </si>
+  <si>
+    <t>오독비전</t>
+  </si>
+  <si>
+    <t>독경</t>
+  </si>
+  <si>
+    <t>약왕신편</t>
+  </si>
+  <si>
+    <t>철장권보</t>
+  </si>
+  <si>
+    <t>칠상권보</t>
+  </si>
+  <si>
+    <t>천산육양장</t>
+  </si>
+  <si>
+    <t>현명신장</t>
+  </si>
+  <si>
+    <t>태극권경</t>
+  </si>
+  <si>
+    <t>용상반야공</t>
+  </si>
+  <si>
+    <t>태현경</t>
+  </si>
+  <si>
+    <t>암연소혼장</t>
+  </si>
+  <si>
+    <t>항룡십팔장</t>
+  </si>
+  <si>
+    <t>북명신공</t>
+  </si>
+  <si>
+    <t>흡성대법</t>
+  </si>
+  <si>
+    <t>신목왕정</t>
+  </si>
+  <si>
+    <t>육맥신검보</t>
+  </si>
+  <si>
+    <t>송풍검보</t>
+  </si>
+  <si>
+    <t>태산십팔반</t>
+  </si>
+  <si>
+    <t>칠성검보</t>
+  </si>
+  <si>
+    <t>양의검법</t>
+  </si>
+  <si>
+    <t>금사비급</t>
+  </si>
+  <si>
+    <t>옥녀소심검법</t>
+  </si>
+  <si>
+    <t>묘가검법</t>
+  </si>
+  <si>
+    <t>태극검법</t>
+  </si>
+  <si>
+    <t>달마검보</t>
+  </si>
+  <si>
+    <t>현철검법</t>
+  </si>
+  <si>
+    <t>벽사검보</t>
+  </si>
+  <si>
+    <t>독고구검</t>
+  </si>
+  <si>
+    <t>혈도경</t>
+  </si>
+  <si>
+    <t>화염도법</t>
+  </si>
+  <si>
+    <t>반양의도법</t>
+  </si>
+  <si>
+    <t>광풍도법</t>
+  </si>
+  <si>
+    <t>호가도법</t>
+  </si>
+  <si>
+    <t>벽력도법</t>
+  </si>
+  <si>
+    <t>독룡편법</t>
+  </si>
+  <si>
+    <t>황사만리편법</t>
+  </si>
+  <si>
+    <t>만천화우</t>
+  </si>
+  <si>
+    <t>벽력비급</t>
+  </si>
+  <si>
+    <t>함사사영</t>
+  </si>
+  <si>
+    <t>좌우호박기술</t>
+  </si>
+  <si>
+    <t>건곤대나이</t>
+  </si>
+  <si>
+    <t>규화보전</t>
+  </si>
+  <si>
+    <t>구음진경</t>
+  </si>
+  <si>
+    <t>구양진경</t>
+  </si>
+  <si>
+    <t>비황석</t>
+  </si>
+  <si>
+    <t>금잔표</t>
+  </si>
+  <si>
+    <t>비도</t>
+  </si>
+  <si>
+    <t>보제자</t>
+  </si>
+  <si>
+    <t>금사추</t>
+  </si>
+  <si>
+    <t>벽력탄</t>
+  </si>
+  <si>
+    <t>독질려</t>
+  </si>
+  <si>
+    <t>옥봉침</t>
+  </si>
+  <si>
+    <t>빙백은침</t>
+  </si>
+  <si>
+    <t>흑혈신침</t>
+  </si>
+  <si>
+    <t>현철검</t>
+  </si>
+  <si>
+    <t>군자검</t>
+  </si>
+  <si>
+    <t>숙녀검</t>
+  </si>
+  <si>
+    <t>의천검</t>
+  </si>
+  <si>
+    <t>금사검</t>
+  </si>
+  <si>
+    <t>응벽검</t>
+  </si>
+  <si>
+    <t>백룡검</t>
+  </si>
+  <si>
+    <t>백홍검</t>
+  </si>
+  <si>
+    <t>주공검</t>
+  </si>
+  <si>
+    <t>혈도</t>
+  </si>
+  <si>
+    <t>냉월보도</t>
+  </si>
+  <si>
+    <t>도룡도</t>
+  </si>
+  <si>
+    <t>녹파향로도</t>
+  </si>
+  <si>
+    <t>벽력광도</t>
+  </si>
+  <si>
+    <t>연위갑</t>
+  </si>
+  <si>
+    <t>금사배심</t>
+  </si>
+  <si>
+    <t>악피호갑</t>
+  </si>
+  <si>
+    <t>옥봉장</t>
+  </si>
+  <si>
+    <t>흑목령패</t>
+  </si>
+  <si>
+    <t>이화주</t>
+  </si>
+  <si>
+    <t>비취잔</t>
+  </si>
+  <si>
+    <t>칠보지환</t>
+  </si>
+  <si>
+    <t>신선미녀도</t>
+  </si>
+  <si>
+    <t>대연전국옥새</t>
+  </si>
+  <si>
+    <t>대연황제세계도</t>
+  </si>
+  <si>
+    <t>상선벌악령</t>
+  </si>
+  <si>
+    <t>양엽도법</t>
+  </si>
+  <si>
+    <t>단장초</t>
+  </si>
+  <si>
+    <t>현빙벽화주</t>
+  </si>
+  <si>
+    <t>묘인봉안해독약</t>
+  </si>
+  <si>
+    <t>양양좌둔</t>
+  </si>
+  <si>
+    <t>소허릿살</t>
+  </si>
+  <si>
+    <t>돼지귓살</t>
+  </si>
+  <si>
+    <t>장퇴육</t>
+  </si>
+  <si>
+    <t>토육</t>
+  </si>
+  <si>
+    <t>신장</t>
+  </si>
+  <si>
+    <t>비호외전</t>
+  </si>
+  <si>
+    <t>설산비호</t>
+  </si>
+  <si>
+    <t>연성결</t>
+  </si>
+  <si>
+    <t>천룡팔부</t>
+  </si>
+  <si>
+    <t>사조영웅전</t>
+  </si>
+  <si>
+    <t>백마소서풍</t>
+  </si>
+  <si>
+    <t>녹정기</t>
+  </si>
+  <si>
+    <t>소오강호</t>
+  </si>
+  <si>
+    <t>서검은구록</t>
+  </si>
+  <si>
+    <t>신조협려</t>
+  </si>
+  <si>
+    <t>협객행</t>
+  </si>
+  <si>
+    <t>의천도룡기</t>
+  </si>
+  <si>
+    <t>벽혈검</t>
+  </si>
+  <si>
+    <t>원앙도</t>
+  </si>
+  <si>
+    <t>칠심해당</t>
+  </si>
+  <si>
+    <t>당시선집</t>
+  </si>
+  <si>
+    <t>홍열쇠</t>
+  </si>
+  <si>
+    <t>등열쇠</t>
+  </si>
+  <si>
+    <t>황열쇠</t>
+  </si>
+  <si>
+    <t>녹열쇠</t>
+  </si>
+  <si>
+    <t>남열쇠</t>
+  </si>
+  <si>
+    <t>자열쇠</t>
+  </si>
+  <si>
+    <t>철열쇠</t>
+  </si>
+  <si>
+    <t>동열쇠</t>
+  </si>
+  <si>
+    <t>은열쇠</t>
+  </si>
+  <si>
+    <t>금열쇠</t>
+  </si>
+  <si>
+    <t>약재</t>
+  </si>
+  <si>
+    <t>초석</t>
+  </si>
+  <si>
+    <t>남화송이</t>
+  </si>
+  <si>
+    <t>은량</t>
+  </si>
+  <si>
+    <t>옥적수가청락매</t>
+  </si>
+  <si>
+    <t>광릉산금곡</t>
+  </si>
+  <si>
+    <t>유중보구혈기보</t>
+  </si>
+  <si>
+    <t>장욱솔의첩</t>
+  </si>
+  <si>
+    <t>계산행여도</t>
+  </si>
+  <si>
+    <t>일촬금모</t>
+  </si>
+  <si>
+    <t>나침반</t>
+  </si>
+  <si>
+    <t>대두대가서신</t>
+  </si>
+  <si>
+    <t>수건</t>
+  </si>
+  <si>
+    <t>임진남유언</t>
+  </si>
+  <si>
+    <t>지혜과</t>
+  </si>
+  <si>
+    <t>원도</t>
+  </si>
+  <si>
+    <t>앙도</t>
+  </si>
+  <si>
+    <t>무림첩</t>
+  </si>
+  <si>
+    <t>명교철염령</t>
+  </si>
+  <si>
+    <t>일과두로</t>
+  </si>
+  <si>
+    <t>진무검</t>
+  </si>
+  <si>
+    <t>금분세수청첩</t>
+  </si>
+  <si>
+    <t>소도자</t>
+  </si>
+  <si>
+    <t>철산</t>
+  </si>
+  <si>
+    <t>빈랑</t>
+  </si>
+  <si>
+    <t>피의</t>
+  </si>
+  <si>
+    <t>무용</t>
+  </si>
+  <si>
+    <t>최후</t>
+  </si>
+  <si>
+    <t>활성음료， 쾌속 체력 보충용</t>
+  </si>
+  <si>
+    <t>한의약， 소수 체력 보충용</t>
+  </si>
+  <si>
+    <t>생명력 허약 시， 회복용</t>
+  </si>
+  <si>
+    <t>치료약， 소수 생명력 회복용</t>
+  </si>
+  <si>
+    <t>공동파 소유， 소수 생명력 회복용</t>
+  </si>
+  <si>
+    <t>화산파 소유， 소수 생명력 회복용</t>
+  </si>
+  <si>
+    <t>무당파 소유， 소수 생명력 회복용</t>
+  </si>
+  <si>
+    <t>소림사 치료약， 생명력 회복용</t>
+  </si>
+  <si>
+    <t>항산파 소유， 다수 생명력 회복용</t>
+  </si>
+  <si>
+    <t>치료약， 생명력 보충용</t>
+  </si>
+  <si>
+    <t>사용 후 사람을 쉽게 들어올린다， 내력 회복용</t>
+  </si>
+  <si>
+    <t>천연식품， 소수 내력 회복</t>
+  </si>
+  <si>
+    <t>항산파 소유， 내력 회복</t>
+  </si>
+  <si>
+    <t>도화도 소유， 내력 회복， 해독</t>
+  </si>
+  <si>
+    <t>전진교 소유， 내력 회복</t>
+  </si>
+  <si>
+    <t>도화도 제조， 내력 회복</t>
+  </si>
+  <si>
+    <t>소요파 치료약， 내력 보충</t>
+  </si>
+  <si>
+    <t>도화도 소유， 생명력， 내력 회복</t>
+  </si>
+  <si>
+    <t>명가의 진품， 내력， 생명력 회복</t>
+  </si>
+  <si>
+    <t>치료약， 생명을 구하는 신약</t>
+  </si>
+  <si>
+    <t>신비단약， 생명구원의 신약</t>
+  </si>
+  <si>
+    <t>내장 통증， 중독 약품</t>
+  </si>
+  <si>
+    <t>일반적 해독약， 황련이 제조</t>
+  </si>
+  <si>
+    <t>무당파의 해독약</t>
+  </si>
+  <si>
+    <t>공동파 소유， 해독</t>
+  </si>
+  <si>
+    <t>호청우 비방， 해독약</t>
+  </si>
+  <si>
+    <t>소림사 소유， 해독약</t>
+  </si>
+  <si>
+    <t>설산의 산물， 독을 흡수</t>
+  </si>
+  <si>
+    <t>천년약， 생명력 최대치 상승</t>
+  </si>
+  <si>
+    <t>귀산 산물， 생명력 최대치 상승</t>
+  </si>
+  <si>
+    <t>독사의 쓸개， 내력 최대치 상승</t>
+  </si>
+  <si>
+    <t>오독으로 됨， 내력 최대치 상승</t>
+  </si>
+  <si>
+    <t>화초로 제조， 내력 최대치 상승</t>
+  </si>
+  <si>
+    <t>신기과일， 내력 최대치 상승</t>
+  </si>
+  <si>
+    <t>천년물， 생명력， 내력 최대치 상승</t>
+  </si>
+  <si>
+    <t>진귀한 물건， 생명력， 내력 최대치 상승</t>
+  </si>
+  <si>
+    <t>서역의 명물， 독을 막아냄</t>
+  </si>
+  <si>
+    <t>독성이 매우 높아서， 독을 연마하는 사람의 공력을 크게 높일 수 있다</t>
+  </si>
+  <si>
+    <t>만독의 왕， 복용 후 백가지 독을 막아냄</t>
+  </si>
+  <si>
+    <t>화산파의 내공 심범</t>
+  </si>
+  <si>
+    <t>소요파 내공 심법</t>
+  </si>
+  <si>
+    <t>소림나한복마니우를 기록</t>
+  </si>
+  <si>
+    <t>내공 수련을 위한 비밀 법문</t>
+  </si>
+  <si>
+    <t>소림사 내공의 무상심법</t>
+  </si>
+  <si>
+    <t>전승이 소실된 내공 보전</t>
+  </si>
+  <si>
+    <t>무당파의 경공 심법</t>
+  </si>
+  <si>
+    <t>신출귀몰 경공 비법</t>
+  </si>
+  <si>
+    <t>소요파의 경공 절학， 수련 후 경공 증가</t>
+  </si>
+  <si>
+    <t>혈도， 경맥을 탐구하는 의서</t>
+  </si>
+  <si>
+    <t>의학 사전</t>
+  </si>
+  <si>
+    <t>접곡 의선의 의술을 기록</t>
+  </si>
+  <si>
+    <t>오독교의 비적， 독으로 해독하는 방법을 기재</t>
+  </si>
+  <si>
+    <t>독선 왕난고가 지은 독술 보전</t>
+  </si>
+  <si>
+    <t>독수약왕의 필생 심혈 저작</t>
+  </si>
+  <si>
+    <t>철장방의 양명 절학</t>
+  </si>
+  <si>
+    <t>공동파의 독문 권법</t>
+  </si>
+  <si>
+    <t>소요파의 장법 비급</t>
+  </si>
+  <si>
+    <t>실전된 지 오래 된 무림 절학</t>
+  </si>
+  <si>
+    <t>최근 창시된 무당파의 절학， 사량발천근</t>
+  </si>
+  <si>
+    <t>밀교 지고무상의 호법신공</t>
+  </si>
+  <si>
+    <t>누구도 풀 수 없는 신비로운 무공</t>
+  </si>
+  <si>
+    <t>양과가 창안해 낸 강력 장법</t>
+  </si>
+  <si>
+    <t>개방을 지키는 보물</t>
+  </si>
+  <si>
+    <t>내력을 흡수하여 자신이 사용하는 소요파의 절학</t>
+  </si>
+  <si>
+    <t>적의 내력을 흡수하여 사용하는 치명적인 수법</t>
+  </si>
+  <si>
+    <t>대리 단가의 초강력 검기 절학</t>
+  </si>
+  <si>
+    <t>사천 청성파의 검법</t>
+  </si>
+  <si>
+    <t>태산파의 조예 깊은 검법</t>
+  </si>
+  <si>
+    <t>형산파 천변만화의 검법</t>
+  </si>
+  <si>
+    <t>왕중양이 꺠달은 북두칠성의 검법</t>
+  </si>
+  <si>
+    <t>곤륜파의 독문 절학</t>
+  </si>
+  <si>
+    <t>금사랑군이 뱀을 보고 깨달은 검법</t>
+  </si>
+  <si>
+    <t>고묘파의 날렵한 경공 검법</t>
+  </si>
+  <si>
+    <t>묘인봉의 묘가 가전 검법</t>
+  </si>
+  <si>
+    <t>장삼봉이 새롭게 창안해 낸 검법</t>
+  </si>
+  <si>
+    <t>소림 칠십이 절기 중 하나</t>
+  </si>
+  <si>
+    <t>양과가 깨달은 검마가 남긴 검법</t>
+  </si>
+  <si>
+    <t>대를 끊는 악날한 검법</t>
+  </si>
+  <si>
+    <t>독고구패가 개발한 높은 경지의 검법</t>
+  </si>
+  <si>
+    <t>혈도도법을 수련 할 수 있다</t>
+  </si>
+  <si>
+    <t>서역 대륜사의 도법 절학</t>
+  </si>
+  <si>
+    <t>화산파의 무학 도법</t>
+  </si>
+  <si>
+    <t>쾌속도의 도법</t>
+  </si>
+  <si>
+    <t>호일도 일가의 가전 도법</t>
+  </si>
+  <si>
+    <t>벽력삼절 중 하나인 도법</t>
+  </si>
+  <si>
+    <t>가볍고 날렵하며， 변화무쌍한 째찍 무공</t>
+  </si>
+  <si>
+    <t>서역에 전파된 편법</t>
+  </si>
+  <si>
+    <t>암기능력을 증가시킨다</t>
+  </si>
+  <si>
+    <t>벽력삼절 중 하나， 암기총결</t>
+  </si>
+  <si>
+    <t>오독교의 암기 총결</t>
+  </si>
+  <si>
+    <t>노완동이 고안해 낸 신비 비술， 수련 후 두 번 공격</t>
+  </si>
+  <si>
+    <t>명교의 보전， 수련 후 방어력 증가</t>
+  </si>
+  <si>
+    <t>도가 내공 수련을 위한 최고의 무상심법</t>
+  </si>
+  <si>
+    <t>지고무상의 무공보전</t>
+  </si>
+  <si>
+    <t>보통 암기</t>
+  </si>
+  <si>
+    <t>금사랑군의 독문 암기</t>
+  </si>
+  <si>
+    <t>벽력삼절 중 하나인 화폭암기</t>
+  </si>
+  <si>
+    <t>독을 머금은 암기</t>
+  </si>
+  <si>
+    <t>고묘파의 암기로， 벌독이 있다</t>
+  </si>
+  <si>
+    <t>고묘파의 암기로， 맹독이 있다</t>
+  </si>
+  <si>
+    <t>일월신교의 암기로 독을 머금고 있다</t>
+  </si>
+  <si>
+    <t>현철로 된 중검</t>
+  </si>
+  <si>
+    <t>검객이 사용， 검법이 가볍게 구사된다</t>
+  </si>
+  <si>
+    <t>현철로 주조 된 무림의 기보</t>
+  </si>
+  <si>
+    <t>금사랑군의 휴대 무기</t>
+  </si>
+  <si>
+    <t>검객이 사용</t>
+  </si>
+  <si>
+    <t>도객이 사용， 혈도도법의 위력 증가</t>
+  </si>
+  <si>
+    <t>도객이 사용， 호가도법의 위력 증가</t>
+  </si>
+  <si>
+    <t>무림지존의 보도로， 용마저 도살한다</t>
+  </si>
+  <si>
+    <t>도객이 사용</t>
+  </si>
+  <si>
+    <t>전설적인 인물의 신비한 보도</t>
+  </si>
+  <si>
+    <t>도화도의 보물， 공격력과 방어력 증가</t>
+  </si>
+  <si>
+    <t>금사로 만든 보호구， 방어력 증가</t>
+  </si>
+  <si>
+    <t>방어력 증가</t>
+  </si>
+  <si>
+    <t>악어가죽으로 제작된 방어구， 방어력 증가</t>
+  </si>
+  <si>
+    <t>양봉인이 좋아하는 것으로， 벌떼를 끌어들일 수 있다</t>
+  </si>
+  <si>
+    <t>흑목애 통과 가능한 신패</t>
+  </si>
+  <si>
+    <t>항주의 명주</t>
+  </si>
+  <si>
+    <t>이화주를 이 비취잔으로 마시면 더 맛있다</t>
+  </si>
+  <si>
+    <t>소요파 장문을 인증하는 신물</t>
+  </si>
+  <si>
+    <t>여자 그림</t>
+  </si>
+  <si>
+    <t>대연왕조 전국의 옥새</t>
+  </si>
+  <si>
+    <t>대연왕조 역대 황제의 성명 도표</t>
+  </si>
+  <si>
+    <t>협객도에 초대받은 자의 신물</t>
+  </si>
+  <si>
+    <t>알 수 없는 도보 비급의 잃어버린 낙장으로 의심된다</t>
+  </si>
+  <si>
+    <t>정화 옆에 피어난 식물</t>
+  </si>
+  <si>
+    <t>음양의 악독을 조화시킬 수 있다</t>
+  </si>
+  <si>
+    <t>칠심해당으로 만든 눈 해독약， 단장초 가루로 만든 독을 치료할 수 있다</t>
+  </si>
+  <si>
+    <t>음식의 재료 중 하나</t>
+  </si>
+  <si>
+    <t>무림 맹주의 신물</t>
+  </si>
+  <si>
+    <t>소설책</t>
+  </si>
+  <si>
+    <t>천하최고의 강한 독을 가짐</t>
+  </si>
+  <si>
+    <t>회교의 성서</t>
+  </si>
+  <si>
+    <t>당시 삼백수를 기록</t>
+  </si>
+  <si>
+    <t>흑백자가 준 열쇠</t>
+  </si>
+  <si>
+    <t>대륜사 번승의 휴대 열쇠</t>
+  </si>
+  <si>
+    <t>공팔라가 준 열쇠</t>
+  </si>
+  <si>
+    <t>공팔라가 준 비밀열쇠</t>
+  </si>
+  <si>
+    <t>화산파에서 얻은 열쇠</t>
+  </si>
+  <si>
+    <t>모용복이 준 열쇠</t>
+  </si>
+  <si>
+    <t>신비의 열쇠</t>
+  </si>
+  <si>
+    <t>각 종 한약재， 단약을 만드는 데 필요하다</t>
+  </si>
+  <si>
+    <t>화약으로 만들어 벽력탄 제조에 필요</t>
+  </si>
+  <si>
+    <t>생김새가 기이한 푸른 꽃， 향기가 은은하다</t>
+  </si>
+  <si>
+    <t>유용한 물품， 심지어 귀신이 맷돌을 갈게 할 수 있다</t>
+  </si>
+  <si>
+    <t>오필봉 아래，좌표（６４，５１）</t>
+  </si>
+  <si>
+    <t>최고의 음식</t>
+  </si>
+  <si>
+    <t>실전된 거문고 명곡</t>
+  </si>
+  <si>
+    <t>유중보가 시골 노파에게 패해 피를 토한 대국의 기보</t>
+  </si>
+  <si>
+    <t>당나라 서예 명가 장욱의 진필 작품</t>
+  </si>
+  <si>
+    <t>북송 범중립이 공들인 걸작</t>
+  </si>
+  <si>
+    <t>금모사왕 사손의 모발</t>
+  </si>
+  <si>
+    <t>현재 배의 위치와 좌표를 나타낼 수 있다</t>
+  </si>
+  <si>
+    <t>무림기밀， 중대한 내용</t>
+  </si>
+  <si>
+    <t>원앙이 새겨진 손수건</t>
+  </si>
+  <si>
+    <t>임진남이 사망 전 남긴 서신</t>
+  </si>
+  <si>
+    <t>사용 후 지혜 증가</t>
+  </si>
+  <si>
+    <t>천하무적에 관한 비밀을 간직하고 있다고 전해진다</t>
+  </si>
+  <si>
+    <t>화산논검 무림대회 참가 명록</t>
+  </si>
+  <si>
+    <t>명교 고위 인사 간의 신물</t>
+  </si>
+  <si>
+    <t>성곤의 수급</t>
+  </si>
+  <si>
+    <t>무당파진교보검</t>
+  </si>
+  <si>
+    <t>형산파 관례 초청장</t>
+  </si>
+  <si>
+    <t>쓰고 매운 독한 술</t>
+  </si>
+  <si>
+    <t>물건을 파내는데 쓰는 도구</t>
+  </si>
+  <si>
+    <t>활력제， 체력 증가</t>
+  </si>
+  <si>
+    <t>나의 형제이자 일상복， 방어력이 강하다</t>
+  </si>
+  <si>
+    <t>쓸모 없음</t>
+  </si>
+  <si>
+    <t>마지막이다</t>
+  </si>
+  <si>
+    <t>비천심법</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회귀술서. 절세의 심법이자 경공서</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회풍낙안검법</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성수해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장문인이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연습물</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오잠의</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>주정빙섬</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>구전웅사환</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>코란경</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>틈왕장보도</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>틈왕군도</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>틈왕 이자성의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>휴대무기</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초심법</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구나 구할 수 있는 심신을 단련할 수 있는 기초 심법</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초의서</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초경공서</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초도법</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초검법</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초권법</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구나 구할 수 있는 의술을 단련할 수 있는 기초 의서</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구나 구할 수 있는 경신술을 단련할 수 있는 기초 경공서</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구나 구할 수 있는 검술을 단련할 수 있는 기초 검법</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구나 구할 수 있는 도법을 단련할 수 있는 기초 도법</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구나 구할 수 있는 권장을 단련할 수 있는 기초 권법</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2008,7 +2196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2068,6 +2256,53 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움체"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2103,7 +2338,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2119,13 +2354,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -2469,27 +2713,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX204"/>
+  <dimension ref="A1:AX211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AX4" sqref="AX4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C168" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="M205" sqref="M205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="50" max="50" width="28.36328125" style="1" customWidth="1"/>
+    <col min="50" max="50" width="28.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50">
       <c r="A1" s="7" t="s">
-        <v>640</v>
+        <v>273</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>639</v>
+        <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -2641,155 +2887,155 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50">
       <c r="A3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>642</v>
+        <v>275</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="8" t="s">
-        <v>642</v>
+        <v>275</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>641</v>
+        <v>274</v>
       </c>
       <c r="AX3" s="4" t="s">
-        <v>642</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2935,18 +3181,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50">
       <c r="A5" s="2">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>469</v>
       </c>
       <c r="E5" s="2">
         <v>-1</v>
@@ -3085,18 +3331,18 @@
       </c>
       <c r="AX5" s="5"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>103</v>
+        <v>470</v>
       </c>
       <c r="E6" s="2">
         <v>-1</v>
@@ -3235,18 +3481,18 @@
       </c>
       <c r="AX6" s="5"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>278</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>471</v>
       </c>
       <c r="E7" s="2">
         <v>-1</v>
@@ -3385,18 +3631,18 @@
       </c>
       <c r="AX7" s="5"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50">
       <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>279</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>109</v>
+        <v>472</v>
       </c>
       <c r="E8" s="2">
         <v>-1</v>
@@ -3535,18 +3781,18 @@
       </c>
       <c r="AX8" s="5"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50">
       <c r="A9" s="2">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>112</v>
+        <v>473</v>
       </c>
       <c r="E9" s="2">
         <v>-1</v>
@@ -3685,18 +3931,18 @@
       </c>
       <c r="AX9" s="5"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50">
       <c r="A10" s="2">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>281</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>115</v>
+        <v>474</v>
       </c>
       <c r="E10" s="2">
         <v>-1</v>
@@ -3835,18 +4081,18 @@
       </c>
       <c r="AX10" s="5"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50">
       <c r="A11" s="2">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>282</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>118</v>
+        <v>475</v>
       </c>
       <c r="E11" s="2">
         <v>-1</v>
@@ -3985,18 +4231,18 @@
       </c>
       <c r="AX11" s="5"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50">
       <c r="A12" s="2">
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>121</v>
+        <v>476</v>
       </c>
       <c r="E12" s="2">
         <v>-1</v>
@@ -4135,18 +4381,18 @@
       </c>
       <c r="AX12" s="5"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50">
       <c r="A13" s="2">
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>122</v>
+        <v>284</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>124</v>
+        <v>477</v>
       </c>
       <c r="E13" s="2">
         <v>-1</v>
@@ -4285,18 +4531,18 @@
       </c>
       <c r="AX13" s="5"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50">
       <c r="A14" s="2">
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>125</v>
+        <v>285</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>127</v>
+        <v>478</v>
       </c>
       <c r="E14" s="2">
         <v>-1</v>
@@ -4435,18 +4681,18 @@
       </c>
       <c r="AX14" s="5"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50">
       <c r="A15" s="2">
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>128</v>
+        <v>286</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>130</v>
+        <v>479</v>
       </c>
       <c r="E15" s="2">
         <v>-1</v>
@@ -4585,18 +4831,18 @@
       </c>
       <c r="AX15" s="5"/>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50">
       <c r="A16" s="2">
         <v>11</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>637</v>
+        <v>287</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>132</v>
+        <v>480</v>
       </c>
       <c r="E16" s="2">
         <v>-1</v>
@@ -4735,18 +4981,18 @@
       </c>
       <c r="AX16" s="5"/>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50">
       <c r="A17" s="2">
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>133</v>
+        <v>288</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>135</v>
+        <v>481</v>
       </c>
       <c r="E17" s="2">
         <v>-1</v>
@@ -4885,18 +5131,18 @@
       </c>
       <c r="AX17" s="5"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50">
       <c r="A18" s="2">
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>136</v>
+        <v>289</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>138</v>
+        <v>482</v>
       </c>
       <c r="E18" s="2">
         <v>-1</v>
@@ -5035,18 +5281,18 @@
       </c>
       <c r="AX18" s="5"/>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50">
       <c r="A19" s="2">
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>139</v>
+        <v>290</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>140</v>
+        <v>483</v>
       </c>
       <c r="E19" s="2">
         <v>-1</v>
@@ -5185,18 +5431,18 @@
       </c>
       <c r="AX19" s="5"/>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50">
       <c r="A20" s="2">
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>141</v>
+        <v>291</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>143</v>
+        <v>484</v>
       </c>
       <c r="E20" s="2">
         <v>-1</v>
@@ -5335,18 +5581,18 @@
       </c>
       <c r="AX20" s="5"/>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50">
       <c r="A21" s="2">
         <v>16</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>144</v>
+      <c r="B21" s="15" t="s">
+        <v>644</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>145</v>
+        <v>485</v>
       </c>
       <c r="E21" s="2">
         <v>-1</v>
@@ -5485,18 +5731,18 @@
       </c>
       <c r="AX21" s="5"/>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50">
       <c r="A22" s="2">
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>146</v>
+        <v>292</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>148</v>
+        <v>486</v>
       </c>
       <c r="E22" s="2">
         <v>-1</v>
@@ -5635,18 +5881,18 @@
       </c>
       <c r="AX22" s="5"/>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50">
       <c r="A23" s="2">
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>149</v>
+        <v>293</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>151</v>
+        <v>487</v>
       </c>
       <c r="E23" s="2">
         <v>-1</v>
@@ -5785,18 +6031,18 @@
       </c>
       <c r="AX23" s="5"/>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50">
       <c r="A24" s="2">
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>154</v>
+        <v>488</v>
       </c>
       <c r="E24" s="2">
         <v>-1</v>
@@ -5935,18 +6181,18 @@
       </c>
       <c r="AX24" s="5"/>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50">
       <c r="A25" s="2">
         <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>155</v>
+        <v>295</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>157</v>
+        <v>489</v>
       </c>
       <c r="E25" s="2">
         <v>-1</v>
@@ -6085,18 +6331,18 @@
       </c>
       <c r="AX25" s="5"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50">
       <c r="A26" s="2">
         <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>158</v>
+        <v>296</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>160</v>
+        <v>490</v>
       </c>
       <c r="E26" s="2">
         <v>-1</v>
@@ -6235,18 +6481,18 @@
       </c>
       <c r="AX26" s="5"/>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50">
       <c r="A27" s="2">
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>163</v>
+        <v>491</v>
       </c>
       <c r="E27" s="2">
         <v>-1</v>
@@ -6385,18 +6631,18 @@
       </c>
       <c r="AX27" s="5"/>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50">
       <c r="A28" s="2">
         <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>164</v>
+        <v>298</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>166</v>
+        <v>492</v>
       </c>
       <c r="E28" s="2">
         <v>-1</v>
@@ -6535,18 +6781,18 @@
       </c>
       <c r="AX28" s="5"/>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50">
       <c r="A29" s="2">
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>167</v>
+        <v>299</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>169</v>
+        <v>493</v>
       </c>
       <c r="E29" s="2">
         <v>-1</v>
@@ -6685,18 +6931,18 @@
       </c>
       <c r="AX29" s="5"/>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50">
       <c r="A30" s="2">
         <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>172</v>
+        <v>494</v>
       </c>
       <c r="E30" s="2">
         <v>-1</v>
@@ -6835,18 +7081,18 @@
       </c>
       <c r="AX30" s="5"/>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50">
       <c r="A31" s="2">
         <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>173</v>
+        <v>301</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>175</v>
+        <v>495</v>
       </c>
       <c r="E31" s="2">
         <v>-1</v>
@@ -6985,18 +7231,18 @@
       </c>
       <c r="AX31" s="5"/>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50">
       <c r="A32" s="2">
         <v>27</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>176</v>
+      <c r="B32" s="15" t="s">
+        <v>643</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>178</v>
+        <v>496</v>
       </c>
       <c r="E32" s="2">
         <v>-1</v>
@@ -7135,18 +7381,18 @@
       </c>
       <c r="AX32" s="5"/>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50">
       <c r="A33" s="2">
         <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>179</v>
+        <v>302</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>181</v>
+        <v>497</v>
       </c>
       <c r="E33" s="2">
         <v>-1</v>
@@ -7285,18 +7531,18 @@
       </c>
       <c r="AX33" s="5"/>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50">
       <c r="A34" s="2">
         <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>182</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>184</v>
+        <v>498</v>
       </c>
       <c r="E34" s="2">
         <v>-1</v>
@@ -7435,18 +7681,18 @@
       </c>
       <c r="AX34" s="5"/>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50">
       <c r="A35" s="2">
         <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>185</v>
+        <v>304</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>187</v>
+        <v>499</v>
       </c>
       <c r="E35" s="2">
         <v>-1</v>
@@ -7585,18 +7831,18 @@
       </c>
       <c r="AX35" s="5"/>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50">
       <c r="A36" s="2">
         <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>188</v>
+        <v>305</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="E36" s="2">
         <v>-1</v>
@@ -7735,18 +7981,18 @@
       </c>
       <c r="AX36" s="5"/>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50">
       <c r="A37" s="2">
         <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>191</v>
+        <v>306</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>193</v>
+        <v>501</v>
       </c>
       <c r="E37" s="2">
         <v>-1</v>
@@ -7885,18 +8131,18 @@
       </c>
       <c r="AX37" s="5"/>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50">
       <c r="A38" s="2">
         <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>194</v>
+        <v>307</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>196</v>
+        <v>502</v>
       </c>
       <c r="E38" s="2">
         <v>-1</v>
@@ -8035,18 +8281,18 @@
       </c>
       <c r="AX38" s="5"/>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50">
       <c r="A39" s="2">
         <v>34</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>638</v>
+        <v>308</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>197</v>
+        <v>503</v>
       </c>
       <c r="E39" s="2">
         <v>-1</v>
@@ -8185,18 +8431,18 @@
       </c>
       <c r="AX39" s="5"/>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50">
       <c r="A40" s="2">
         <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>198</v>
+        <v>309</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>200</v>
+        <v>504</v>
       </c>
       <c r="E40" s="2">
         <v>-1</v>
@@ -8335,18 +8581,18 @@
       </c>
       <c r="AX40" s="5"/>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50">
       <c r="A41" s="2">
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>201</v>
+        <v>310</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>203</v>
+        <v>505</v>
       </c>
       <c r="E41" s="2">
         <v>-1</v>
@@ -8485,18 +8731,18 @@
       </c>
       <c r="AX41" s="5"/>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50">
       <c r="A42" s="2">
         <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>205</v>
+        <v>506</v>
       </c>
       <c r="E42" s="2">
         <v>-1</v>
@@ -8635,18 +8881,18 @@
       </c>
       <c r="AX42" s="5"/>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50">
       <c r="A43" s="2">
         <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>206</v>
+        <v>312</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>208</v>
+        <v>507</v>
       </c>
       <c r="E43" s="2">
         <v>-1</v>
@@ -8785,18 +9031,18 @@
       </c>
       <c r="AX43" s="5"/>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50">
       <c r="A44" s="2">
         <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>209</v>
+        <v>313</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>211</v>
+        <v>508</v>
       </c>
       <c r="E44" s="2">
         <v>-1</v>
@@ -8935,18 +9181,18 @@
       </c>
       <c r="AX44" s="5"/>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50">
       <c r="A45" s="2">
         <v>40</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>212</v>
+        <v>314</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>213</v>
+        <v>509</v>
       </c>
       <c r="E45" s="2">
         <v>-1</v>
@@ -9085,18 +9331,18 @@
       </c>
       <c r="AX45" s="5"/>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50">
       <c r="A46" s="2">
         <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>214</v>
+        <v>315</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>216</v>
+        <v>510</v>
       </c>
       <c r="E46" s="2">
         <v>-1</v>
@@ -9235,18 +9481,18 @@
       </c>
       <c r="AX46" s="5"/>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50">
       <c r="A47" s="2">
         <v>42</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>219</v>
+        <v>511</v>
       </c>
       <c r="E47" s="2">
         <v>-1</v>
@@ -9385,18 +9631,18 @@
       </c>
       <c r="AX47" s="5"/>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50">
       <c r="A48" s="2">
         <v>43</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>220</v>
+        <v>317</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>222</v>
+        <v>512</v>
       </c>
       <c r="E48" s="2">
         <v>-1</v>
@@ -9535,18 +9781,18 @@
       </c>
       <c r="AX48" s="5"/>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50">
       <c r="A49" s="2">
         <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>223</v>
+        <v>318</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>225</v>
+        <v>513</v>
       </c>
       <c r="E49" s="2">
         <v>-1</v>
@@ -9685,18 +9931,18 @@
       </c>
       <c r="AX49" s="5"/>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50">
       <c r="A50" s="2">
         <v>45</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>226</v>
+        <v>319</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>228</v>
+        <v>514</v>
       </c>
       <c r="E50" s="2">
         <v>-1</v>
@@ -9835,18 +10081,18 @@
       </c>
       <c r="AX50" s="5"/>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50">
       <c r="A51" s="2">
         <v>46</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>229</v>
+        <v>320</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>231</v>
+        <v>515</v>
       </c>
       <c r="E51" s="2">
         <v>-1</v>
@@ -9985,18 +10231,18 @@
       </c>
       <c r="AX51" s="5"/>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50">
       <c r="A52" s="2">
         <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>232</v>
+        <v>321</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>233</v>
+        <v>140</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>234</v>
+        <v>516</v>
       </c>
       <c r="E52" s="2">
         <v>-1</v>
@@ -10135,18 +10381,18 @@
       </c>
       <c r="AX52" s="5"/>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50">
       <c r="A53" s="2">
         <v>48</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>235</v>
+        <v>322</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>237</v>
+        <v>517</v>
       </c>
       <c r="E53" s="2">
         <v>-1</v>
@@ -10284,21 +10530,21 @@
         <v>171</v>
       </c>
       <c r="AX53" s="5" t="s">
-        <v>238</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50">
       <c r="A54" s="2">
         <v>49</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>241</v>
+        <v>518</v>
       </c>
       <c r="E54" s="2">
         <v>-1</v>
@@ -10436,21 +10682,21 @@
         <v>171</v>
       </c>
       <c r="AX54" s="5" t="s">
-        <v>242</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50">
       <c r="A55" s="2">
         <v>50</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>243</v>
+        <v>324</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>245</v>
+        <v>519</v>
       </c>
       <c r="E55" s="2">
         <v>-1</v>
@@ -10588,21 +10834,21 @@
         <v>171</v>
       </c>
       <c r="AX55" s="5" t="s">
-        <v>246</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50">
       <c r="A56" s="2">
         <v>51</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>247</v>
+        <v>325</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>248</v>
+        <v>147</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>249</v>
+        <v>520</v>
       </c>
       <c r="E56" s="2">
         <v>-1</v>
@@ -10740,21 +10986,21 @@
         <v>171</v>
       </c>
       <c r="AX56" s="5" t="s">
-        <v>250</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50">
       <c r="A57" s="2">
         <v>52</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>251</v>
+        <v>326</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>253</v>
+        <v>521</v>
       </c>
       <c r="E57" s="2">
         <v>-1</v>
@@ -10892,21 +11138,21 @@
         <v>171</v>
       </c>
       <c r="AX57" s="5" t="s">
-        <v>254</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50">
       <c r="A58" s="2">
         <v>53</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>255</v>
+        <v>327</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>256</v>
+        <v>151</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>257</v>
+        <v>522</v>
       </c>
       <c r="E58" s="2">
         <v>-1</v>
@@ -11044,21 +11290,21 @@
         <v>171</v>
       </c>
       <c r="AX58" s="5" t="s">
-        <v>258</v>
+        <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50">
       <c r="A59" s="2">
         <v>54</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>259</v>
+        <v>328</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>261</v>
+        <v>523</v>
       </c>
       <c r="E59" s="2">
         <v>11</v>
@@ -11197,18 +11443,18 @@
       </c>
       <c r="AX59" s="5"/>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50">
       <c r="A60" s="2">
         <v>55</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>262</v>
+        <v>329</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>264</v>
+        <v>524</v>
       </c>
       <c r="E60" s="2">
         <v>6</v>
@@ -11347,18 +11593,18 @@
       </c>
       <c r="AX60" s="5"/>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50">
       <c r="A61" s="2">
         <v>56</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>265</v>
+        <v>330</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>266</v>
+        <v>525</v>
       </c>
       <c r="E61" s="2">
         <v>15</v>
@@ -11497,18 +11743,18 @@
       </c>
       <c r="AX61" s="5"/>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50">
       <c r="A62" s="2">
         <v>57</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>268</v>
+        <v>155</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>269</v>
+        <v>526</v>
       </c>
       <c r="E62" s="2">
         <v>16</v>
@@ -11647,18 +11893,18 @@
       </c>
       <c r="AX62" s="5"/>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50">
       <c r="A63" s="2">
         <v>58</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>270</v>
+        <v>332</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>271</v>
+        <v>156</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>272</v>
+        <v>527</v>
       </c>
       <c r="E63" s="2">
         <v>20</v>
@@ -11797,18 +12043,18 @@
       </c>
       <c r="AX63" s="5"/>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50">
       <c r="A64" s="2">
         <v>59</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>273</v>
+        <v>333</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>274</v>
+        <v>157</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>275</v>
+        <v>528</v>
       </c>
       <c r="E64" s="2">
         <v>18</v>
@@ -11947,18 +12193,18 @@
       </c>
       <c r="AX64" s="5"/>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:50">
       <c r="A65" s="2">
         <v>60</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>277</v>
+        <v>158</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>278</v>
+        <v>529</v>
       </c>
       <c r="E65" s="2">
         <v>23</v>
@@ -12097,18 +12343,18 @@
       </c>
       <c r="AX65" s="5"/>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:50">
       <c r="A66" s="2">
         <v>61</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>279</v>
+        <v>335</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>280</v>
+        <v>159</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>281</v>
+        <v>530</v>
       </c>
       <c r="E66" s="2">
         <v>24</v>
@@ -12247,18 +12493,18 @@
       </c>
       <c r="AX66" s="5"/>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:50">
       <c r="A67" s="2">
         <v>62</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>283</v>
+        <v>160</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>284</v>
+        <v>531</v>
       </c>
       <c r="E67" s="2">
         <v>25</v>
@@ -12397,18 +12643,18 @@
       </c>
       <c r="AX67" s="5"/>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:50">
       <c r="A68" s="2">
         <v>63</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>286</v>
+        <v>161</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>287</v>
+        <v>532</v>
       </c>
       <c r="E68" s="2">
         <v>29</v>
@@ -12547,18 +12793,18 @@
       </c>
       <c r="AX68" s="5"/>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50">
       <c r="A69" s="2">
         <v>64</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>289</v>
+        <v>162</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>290</v>
+        <v>533</v>
       </c>
       <c r="E69" s="2">
         <v>28</v>
@@ -12697,18 +12943,18 @@
       </c>
       <c r="AX69" s="5"/>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50">
       <c r="A70" s="2">
         <v>65</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>293</v>
+        <v>163</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>641</v>
       </c>
       <c r="E70" s="2">
         <v>27</v>
@@ -12847,18 +13093,18 @@
       </c>
       <c r="AX70" s="5"/>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50">
       <c r="A71" s="2">
         <v>66</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>295</v>
+        <v>164</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>296</v>
+        <v>534</v>
       </c>
       <c r="E71" s="2">
         <v>30</v>
@@ -12997,18 +13243,18 @@
       </c>
       <c r="AX71" s="5"/>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50">
       <c r="A72" s="2">
         <v>67</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>298</v>
+        <v>165</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>299</v>
+        <v>535</v>
       </c>
       <c r="E72" s="2">
         <v>89</v>
@@ -13147,18 +13393,18 @@
       </c>
       <c r="AX72" s="5"/>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50">
       <c r="A73" s="2">
         <v>68</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>301</v>
+        <v>166</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>302</v>
+        <v>536</v>
       </c>
       <c r="E73" s="2">
         <v>45</v>
@@ -13297,18 +13543,18 @@
       </c>
       <c r="AX73" s="5"/>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:50">
       <c r="A74" s="2">
         <v>69</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>303</v>
+      <c r="B74" s="13" t="s">
+        <v>640</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>304</v>
+        <v>537</v>
       </c>
       <c r="E74" s="2">
         <v>46</v>
@@ -13447,18 +13693,18 @@
       </c>
       <c r="AX74" s="5"/>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:50">
       <c r="A75" s="2">
         <v>70</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>306</v>
+        <v>538</v>
       </c>
       <c r="E75" s="2">
         <v>53</v>
@@ -13597,18 +13843,18 @@
       </c>
       <c r="AX75" s="5"/>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:50">
       <c r="A76" s="2">
         <v>71</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>308</v>
+        <v>167</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>309</v>
+        <v>539</v>
       </c>
       <c r="E76" s="2">
         <v>47</v>
@@ -13747,18 +13993,18 @@
       </c>
       <c r="AX76" s="5"/>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:50">
       <c r="A77" s="2">
         <v>72</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>311</v>
+        <v>168</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>312</v>
+        <v>540</v>
       </c>
       <c r="E77" s="2">
         <v>54</v>
@@ -13897,18 +14143,18 @@
       </c>
       <c r="AX77" s="5"/>
     </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:50">
       <c r="A78" s="2">
         <v>73</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>314</v>
+        <v>169</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>315</v>
+        <v>541</v>
       </c>
       <c r="E78" s="2">
         <v>49</v>
@@ -14047,18 +14293,18 @@
       </c>
       <c r="AX78" s="5"/>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:50">
       <c r="A79" s="2">
         <v>74</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>317</v>
+        <v>170</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>318</v>
+        <v>542</v>
       </c>
       <c r="E79" s="2">
         <v>55</v>
@@ -14197,18 +14443,18 @@
       </c>
       <c r="AX79" s="5"/>
     </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:50">
       <c r="A80" s="2">
         <v>75</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>320</v>
+        <v>171</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>321</v>
+        <v>543</v>
       </c>
       <c r="E80" s="2">
         <v>58</v>
@@ -14347,18 +14593,18 @@
       </c>
       <c r="AX80" s="5"/>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:50">
       <c r="A81" s="2">
         <v>76</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>323</v>
+        <v>172</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>324</v>
+        <v>544</v>
       </c>
       <c r="E81" s="2">
         <v>59</v>
@@ -14497,18 +14743,18 @@
       </c>
       <c r="AX81" s="5"/>
     </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:50">
       <c r="A82" s="2">
         <v>77</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>326</v>
+        <v>173</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>327</v>
+        <v>545</v>
       </c>
       <c r="E82" s="2">
         <v>57</v>
@@ -14647,18 +14893,18 @@
       </c>
       <c r="AX82" s="5"/>
     </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:50">
       <c r="A83" s="2">
         <v>78</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>329</v>
+        <v>174</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>330</v>
+        <v>546</v>
       </c>
       <c r="E83" s="2">
         <v>60</v>
@@ -14797,18 +15043,18 @@
       </c>
       <c r="AX83" s="5"/>
     </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:50">
       <c r="A84" s="2">
         <v>79</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>332</v>
+        <v>175</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>333</v>
+        <v>547</v>
       </c>
       <c r="E84" s="2">
         <v>61</v>
@@ -14947,18 +15193,18 @@
       </c>
       <c r="AX84" s="5"/>
     </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:50">
       <c r="A85" s="2">
         <v>80</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>335</v>
+        <v>176</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>336</v>
+        <v>548</v>
       </c>
       <c r="E85" s="2">
         <v>63</v>
@@ -15097,18 +15343,18 @@
       </c>
       <c r="AX85" s="5"/>
     </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:50">
       <c r="A86" s="2">
         <v>81</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>338</v>
+        <v>177</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>339</v>
+        <v>549</v>
       </c>
       <c r="E86" s="2">
         <v>66</v>
@@ -15247,18 +15493,18 @@
       </c>
       <c r="AX86" s="5"/>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:50">
       <c r="A87" s="2">
         <v>82</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>341</v>
+        <v>178</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>342</v>
+        <v>550</v>
       </c>
       <c r="E87" s="2">
         <v>65</v>
@@ -15397,18 +15643,18 @@
       </c>
       <c r="AX87" s="5"/>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:50">
       <c r="A88" s="2">
         <v>83</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>344</v>
+        <v>179</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>345</v>
+        <v>551</v>
       </c>
       <c r="E88" s="2">
         <v>64</v>
@@ -15547,18 +15793,18 @@
       </c>
       <c r="AX88" s="5"/>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:50">
       <c r="A89" s="2">
         <v>84</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>347</v>
+        <v>552</v>
       </c>
       <c r="E89" s="2">
         <v>67</v>
@@ -15697,18 +15943,18 @@
       </c>
       <c r="AX89" s="5"/>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:50">
       <c r="A90" s="2">
         <v>85</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>349</v>
+        <v>180</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>350</v>
+        <v>553</v>
       </c>
       <c r="E90" s="2">
         <v>68</v>
@@ -15847,18 +16093,18 @@
       </c>
       <c r="AX90" s="5"/>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:50">
       <c r="A91" s="2">
         <v>86</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>352</v>
+        <v>554</v>
       </c>
       <c r="E91" s="2">
         <v>77</v>
@@ -15997,18 +16243,18 @@
       </c>
       <c r="AX91" s="5"/>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:50">
       <c r="A92" s="2">
         <v>87</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>354</v>
+        <v>181</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>355</v>
+        <v>555</v>
       </c>
       <c r="E92" s="2">
         <v>78</v>
@@ -16147,18 +16393,18 @@
       </c>
       <c r="AX92" s="5"/>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:50">
       <c r="A93" s="2">
         <v>88</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>357</v>
+        <v>182</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>358</v>
+        <v>556</v>
       </c>
       <c r="E93" s="2">
         <v>-1</v>
@@ -16297,18 +16543,18 @@
       </c>
       <c r="AX93" s="5"/>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:50">
       <c r="A94" s="2">
         <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>349</v>
+        <v>180</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>360</v>
+        <v>557</v>
       </c>
       <c r="E94" s="2">
         <v>-1</v>
@@ -16446,21 +16692,21 @@
         <v>172</v>
       </c>
       <c r="AX94" s="5" t="s">
-        <v>361</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:50">
       <c r="A95" s="2">
         <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>363</v>
+        <v>184</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>364</v>
+        <v>558</v>
       </c>
       <c r="E95" s="2">
         <v>-1</v>
@@ -16599,18 +16845,18 @@
       </c>
       <c r="AX95" s="5"/>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:50">
       <c r="A96" s="2">
         <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>366</v>
+        <v>185</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>367</v>
+        <v>559</v>
       </c>
       <c r="E96" s="2">
         <v>-1</v>
@@ -16749,18 +16995,18 @@
       </c>
       <c r="AX96" s="5"/>
     </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:50">
       <c r="A97" s="2">
         <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>369</v>
+        <v>186</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>370</v>
+        <v>560</v>
       </c>
       <c r="E97" s="2">
         <v>-1</v>
@@ -16899,18 +17145,18 @@
       </c>
       <c r="AX97" s="5"/>
     </row>
-    <row r="98" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:50">
       <c r="A98" s="2">
         <v>93</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>372</v>
+        <v>187</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>373</v>
+        <v>561</v>
       </c>
       <c r="E98" s="2">
         <v>-1</v>
@@ -17049,18 +17295,18 @@
       </c>
       <c r="AX98" s="5"/>
     </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:50">
       <c r="A99" s="2">
         <v>94</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>375</v>
+        <v>562</v>
       </c>
       <c r="E99" s="2">
         <v>-1</v>
@@ -17199,18 +17445,18 @@
       </c>
       <c r="AX99" s="5"/>
     </row>
-    <row r="100" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:50">
       <c r="A100" s="2">
         <v>95</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>375</v>
+        <v>562</v>
       </c>
       <c r="E100" s="2">
         <v>92</v>
@@ -17349,18 +17595,18 @@
       </c>
       <c r="AX100" s="5"/>
     </row>
-    <row r="101" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:50">
       <c r="A101" s="2">
         <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>378</v>
+        <v>188</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>379</v>
+        <v>563</v>
       </c>
       <c r="E101" s="2">
         <v>-1</v>
@@ -17499,18 +17745,18 @@
       </c>
       <c r="AX101" s="5"/>
     </row>
-    <row r="102" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:50">
       <c r="A102" s="2">
         <v>97</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>381</v>
+        <v>189</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>379</v>
+        <v>563</v>
       </c>
       <c r="E102" s="2">
         <v>-1</v>
@@ -17649,18 +17895,18 @@
       </c>
       <c r="AX102" s="5"/>
     </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:50">
       <c r="A103" s="2">
         <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>383</v>
+        <v>190</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>379</v>
+        <v>563</v>
       </c>
       <c r="E103" s="2">
         <v>-1</v>
@@ -17799,18 +18045,18 @@
       </c>
       <c r="AX103" s="5"/>
     </row>
-    <row r="104" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:50">
       <c r="A104" s="2">
         <v>99</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>385</v>
+        <v>191</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>379</v>
+        <v>563</v>
       </c>
       <c r="E104" s="2">
         <v>-1</v>
@@ -17949,18 +18195,18 @@
       </c>
       <c r="AX104" s="5"/>
     </row>
-    <row r="105" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:50">
       <c r="A105" s="2">
         <v>100</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>311</v>
+        <v>168</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>387</v>
+        <v>564</v>
       </c>
       <c r="E105" s="2">
         <v>-1</v>
@@ -18099,18 +18345,18 @@
       </c>
       <c r="AX105" s="5"/>
     </row>
-    <row r="106" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:50">
       <c r="A106" s="2">
         <v>101</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>349</v>
+        <v>180</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>389</v>
+        <v>565</v>
       </c>
       <c r="E106" s="2">
         <v>-1</v>
@@ -18249,18 +18495,18 @@
       </c>
       <c r="AX106" s="5"/>
     </row>
-    <row r="107" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:50">
       <c r="A107" s="2">
         <v>102</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>391</v>
+        <v>566</v>
       </c>
       <c r="E107" s="2">
         <v>-1</v>
@@ -18399,18 +18645,18 @@
       </c>
       <c r="AX107" s="5"/>
     </row>
-    <row r="108" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:50">
       <c r="A108" s="2">
         <v>103</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>393</v>
+        <v>192</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>394</v>
+        <v>567</v>
       </c>
       <c r="E108" s="2">
         <v>-1</v>
@@ -18549,18 +18795,18 @@
       </c>
       <c r="AX108" s="5"/>
     </row>
-    <row r="109" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:50">
       <c r="A109" s="2">
         <v>104</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>396</v>
+        <v>193</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>397</v>
+        <v>568</v>
       </c>
       <c r="E109" s="2">
         <v>-1</v>
@@ -18699,18 +18945,18 @@
       </c>
       <c r="AX109" s="5"/>
     </row>
-    <row r="110" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:50">
       <c r="A110" s="2">
         <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>399</v>
+        <v>194</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>400</v>
+        <v>569</v>
       </c>
       <c r="E110" s="2">
         <v>-1</v>
@@ -18849,18 +19095,18 @@
       </c>
       <c r="AX110" s="5"/>
     </row>
-    <row r="111" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:50">
       <c r="A111" s="2">
         <v>106</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>326</v>
+        <v>173</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>402</v>
+        <v>570</v>
       </c>
       <c r="E111" s="2">
         <v>-1</v>
@@ -18999,18 +19245,18 @@
       </c>
       <c r="AX111" s="5"/>
     </row>
-    <row r="112" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:50">
       <c r="A112" s="2">
         <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>404</v>
+        <v>195</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>405</v>
+        <v>571</v>
       </c>
       <c r="E112" s="2">
         <v>-1</v>
@@ -19149,18 +19395,18 @@
       </c>
       <c r="AX112" s="5"/>
     </row>
-    <row r="113" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:50">
       <c r="A113" s="2">
         <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>407</v>
+        <v>196</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>405</v>
+        <v>571</v>
       </c>
       <c r="E113" s="2">
         <v>-1</v>
@@ -19299,18 +19545,18 @@
       </c>
       <c r="AX113" s="5"/>
     </row>
-    <row r="114" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:50">
       <c r="A114" s="2">
         <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>409</v>
+        <v>197</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>410</v>
+        <v>572</v>
       </c>
       <c r="E114" s="2">
         <v>-1</v>
@@ -19449,18 +19695,18 @@
       </c>
       <c r="AX114" s="5"/>
     </row>
-    <row r="115" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:50">
       <c r="A115" s="2">
         <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>311</v>
+        <v>168</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>412</v>
+        <v>573</v>
       </c>
       <c r="E115" s="2">
         <v>-1</v>
@@ -19599,18 +19845,18 @@
       </c>
       <c r="AX115" s="5"/>
     </row>
-    <row r="116" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:50">
       <c r="A116" s="2">
         <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>414</v>
+        <v>198</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>415</v>
+        <v>574</v>
       </c>
       <c r="E116" s="2">
         <v>-1</v>
@@ -19749,18 +19995,18 @@
       </c>
       <c r="AX116" s="5"/>
     </row>
-    <row r="117" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:50">
       <c r="A117" s="2">
         <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>417</v>
+        <v>199</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>415</v>
+        <v>574</v>
       </c>
       <c r="E117" s="2">
         <v>-1</v>
@@ -19899,18 +20145,18 @@
       </c>
       <c r="AX117" s="5"/>
     </row>
-    <row r="118" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:50">
       <c r="A118" s="2">
         <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>419</v>
+        <v>200</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>415</v>
+        <v>574</v>
       </c>
       <c r="E118" s="2">
         <v>-1</v>
@@ -20049,18 +20295,18 @@
       </c>
       <c r="AX118" s="5"/>
     </row>
-    <row r="119" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:50">
       <c r="A119" s="2">
         <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>421</v>
+        <v>201</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>415</v>
+        <v>574</v>
       </c>
       <c r="E119" s="2">
         <v>-1</v>
@@ -20199,18 +20445,18 @@
       </c>
       <c r="AX119" s="5"/>
     </row>
-    <row r="120" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:50">
       <c r="A120" s="2">
         <v>115</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>335</v>
+        <v>176</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>423</v>
+        <v>575</v>
       </c>
       <c r="E120" s="2">
         <v>-1</v>
@@ -20349,18 +20595,18 @@
       </c>
       <c r="AX120" s="5"/>
     </row>
-    <row r="121" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:50">
       <c r="A121" s="2">
         <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>425</v>
+        <v>202</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>426</v>
+        <v>576</v>
       </c>
       <c r="E121" s="2">
         <v>-1</v>
@@ -20499,18 +20745,18 @@
       </c>
       <c r="AX121" s="5"/>
     </row>
-    <row r="122" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:50">
       <c r="A122" s="2">
         <v>117</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>428</v>
+        <v>203</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>429</v>
+        <v>577</v>
       </c>
       <c r="E122" s="2">
         <v>-1</v>
@@ -20649,18 +20895,18 @@
       </c>
       <c r="AX122" s="5"/>
     </row>
-    <row r="123" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:50">
       <c r="A123" s="2">
         <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>431</v>
+        <v>204</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>426</v>
+        <v>578</v>
       </c>
       <c r="E123" s="2">
         <v>-1</v>
@@ -20799,18 +21045,18 @@
       </c>
       <c r="AX123" s="5"/>
     </row>
-    <row r="124" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:50">
       <c r="A124" s="2">
         <v>119</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>349</v>
+        <v>180</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>433</v>
+        <v>579</v>
       </c>
       <c r="E124" s="2">
         <v>-1</v>
@@ -20949,18 +21195,18 @@
       </c>
       <c r="AX124" s="5"/>
     </row>
-    <row r="125" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:50">
       <c r="A125" s="2">
         <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>435</v>
+        <v>205</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>436</v>
+        <v>580</v>
       </c>
       <c r="E125" s="2">
         <v>-1</v>
@@ -21099,18 +21345,18 @@
       </c>
       <c r="AX125" s="5"/>
     </row>
-    <row r="126" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:50">
       <c r="A126" s="2">
         <v>121</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>437</v>
+        <v>394</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>438</v>
+        <v>206</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>439</v>
+        <v>581</v>
       </c>
       <c r="E126" s="2">
         <v>-1</v>
@@ -21249,18 +21495,18 @@
       </c>
       <c r="AX126" s="5"/>
     </row>
-    <row r="127" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:50">
       <c r="A127" s="2">
         <v>122</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>440</v>
+      <c r="B127" s="13" t="s">
+        <v>642</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>441</v>
+        <v>207</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>439</v>
+        <v>582</v>
       </c>
       <c r="E127" s="2">
         <v>-1</v>
@@ -21399,18 +21645,18 @@
       </c>
       <c r="AX127" s="5"/>
     </row>
-    <row r="128" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:50">
       <c r="A128" s="2">
         <v>123</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>442</v>
+        <v>395</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>443</v>
+        <v>208</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>444</v>
+        <v>583</v>
       </c>
       <c r="E128" s="2">
         <v>-1</v>
@@ -21549,18 +21795,18 @@
       </c>
       <c r="AX128" s="5"/>
     </row>
-    <row r="129" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:50">
       <c r="A129" s="2">
         <v>124</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>446</v>
+        <v>209</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>447</v>
+        <v>584</v>
       </c>
       <c r="E129" s="2">
         <v>-1</v>
@@ -21699,18 +21945,18 @@
       </c>
       <c r="AX129" s="5"/>
     </row>
-    <row r="130" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:50">
       <c r="A130" s="2">
         <v>125</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>449</v>
+        <v>210</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="E130" s="2">
         <v>-1</v>
@@ -21849,18 +22095,18 @@
       </c>
       <c r="AX130" s="5"/>
     </row>
-    <row r="131" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:50">
       <c r="A131" s="2">
         <v>126</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>452</v>
+        <v>211</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>453</v>
+        <v>586</v>
       </c>
       <c r="E131" s="2">
         <v>-1</v>
@@ -21999,18 +22245,18 @@
       </c>
       <c r="AX131" s="5"/>
     </row>
-    <row r="132" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:50">
       <c r="A132" s="2">
         <v>127</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>455</v>
+        <v>212</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>456</v>
+        <v>587</v>
       </c>
       <c r="E132" s="2">
         <v>-1</v>
@@ -22149,18 +22395,18 @@
       </c>
       <c r="AX132" s="5"/>
     </row>
-    <row r="133" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:50">
       <c r="A133" s="2">
         <v>128</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>457</v>
+        <v>400</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>458</v>
+        <v>588</v>
       </c>
       <c r="E133" s="2">
         <v>-1</v>
@@ -22299,18 +22545,18 @@
       </c>
       <c r="AX133" s="5"/>
     </row>
-    <row r="134" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:50">
       <c r="A134" s="2">
         <v>129</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>459</v>
+        <v>401</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>460</v>
+        <v>213</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>461</v>
+        <v>589</v>
       </c>
       <c r="E134" s="2">
         <v>-1</v>
@@ -22449,18 +22695,18 @@
       </c>
       <c r="AX134" s="5"/>
     </row>
-    <row r="135" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:50">
       <c r="A135" s="2">
         <v>130</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>462</v>
+        <v>402</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>463</v>
+        <v>590</v>
       </c>
       <c r="E135" s="2">
         <v>-1</v>
@@ -22599,18 +22845,18 @@
       </c>
       <c r="AX135" s="5"/>
     </row>
-    <row r="136" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:50">
       <c r="A136" s="2">
         <v>131</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>464</v>
+        <v>403</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>465</v>
+        <v>591</v>
       </c>
       <c r="E136" s="2">
         <v>-1</v>
@@ -22749,18 +22995,18 @@
       </c>
       <c r="AX136" s="5"/>
     </row>
-    <row r="137" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:50">
       <c r="A137" s="2">
         <v>132</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>466</v>
+        <v>404</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>467</v>
+        <v>214</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>468</v>
+        <v>592</v>
       </c>
       <c r="E137" s="2">
         <v>-1</v>
@@ -22899,18 +23145,18 @@
       </c>
       <c r="AX137" s="5"/>
     </row>
-    <row r="138" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:50">
       <c r="A138" s="2">
         <v>133</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>469</v>
+        <v>405</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>470</v>
+        <v>215</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>471</v>
+        <v>593</v>
       </c>
       <c r="E138" s="2">
         <v>-1</v>
@@ -23049,18 +23295,18 @@
       </c>
       <c r="AX138" s="5"/>
     </row>
-    <row r="139" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:50">
       <c r="A139" s="2">
         <v>134</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>472</v>
+        <v>406</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>473</v>
+        <v>216</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>474</v>
+        <v>594</v>
       </c>
       <c r="E139" s="2">
         <v>-1</v>
@@ -23199,18 +23445,18 @@
       </c>
       <c r="AX139" s="5"/>
     </row>
-    <row r="140" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:50">
       <c r="A140" s="2">
         <v>135</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>475</v>
+      <c r="B140" s="9" t="s">
+        <v>647</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>477</v>
+        <v>217</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>648</v>
       </c>
       <c r="E140" s="2">
         <v>-1</v>
@@ -23349,18 +23595,18 @@
       </c>
       <c r="AX140" s="5"/>
     </row>
-    <row r="141" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:50">
       <c r="A141" s="2">
         <v>136</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>478</v>
+        <v>407</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>479</v>
+        <v>218</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>480</v>
+        <v>595</v>
       </c>
       <c r="E141" s="2">
         <v>-1</v>
@@ -23499,18 +23745,18 @@
       </c>
       <c r="AX141" s="5"/>
     </row>
-    <row r="142" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:50">
       <c r="A142" s="2">
         <v>137</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>481</v>
+        <v>408</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>317</v>
+        <v>170</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>482</v>
+        <v>596</v>
       </c>
       <c r="E142" s="2">
         <v>-1</v>
@@ -23649,18 +23895,18 @@
       </c>
       <c r="AX142" s="5"/>
     </row>
-    <row r="143" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:50">
       <c r="A143" s="2">
         <v>138</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>483</v>
+        <v>409</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>484</v>
+        <v>219</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>485</v>
+        <v>597</v>
       </c>
       <c r="E143" s="2">
         <v>-1</v>
@@ -23799,18 +24045,18 @@
       </c>
       <c r="AX143" s="5"/>
     </row>
-    <row r="144" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:50">
       <c r="A144" s="2">
         <v>139</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>486</v>
+        <v>410</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>485</v>
+        <v>597</v>
       </c>
       <c r="E144" s="2">
         <v>-1</v>
@@ -23949,18 +24195,18 @@
       </c>
       <c r="AX144" s="5"/>
     </row>
-    <row r="145" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:50">
       <c r="A145" s="2">
         <v>140</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>487</v>
+        <v>411</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>485</v>
+        <v>597</v>
       </c>
       <c r="E145" s="2">
         <v>-1</v>
@@ -24099,18 +24345,18 @@
       </c>
       <c r="AX145" s="5"/>
     </row>
-    <row r="146" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:50">
       <c r="A146" s="2">
         <v>141</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>488</v>
+        <v>412</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>489</v>
+        <v>220</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>485</v>
+        <v>597</v>
       </c>
       <c r="E146" s="2">
         <v>-1</v>
@@ -24249,18 +24495,18 @@
       </c>
       <c r="AX146" s="5"/>
     </row>
-    <row r="147" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:50">
       <c r="A147" s="2">
         <v>142</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>490</v>
+        <v>413</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>491</v>
+        <v>221</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>485</v>
+        <v>597</v>
       </c>
       <c r="E147" s="2">
         <v>-1</v>
@@ -24399,18 +24645,18 @@
       </c>
       <c r="AX147" s="5"/>
     </row>
-    <row r="148" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:50">
       <c r="A148" s="2">
         <v>143</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>492</v>
+        <v>414</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>493</v>
+        <v>222</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>494</v>
+        <v>598</v>
       </c>
       <c r="E148" s="2">
         <v>-1</v>
@@ -24549,18 +24795,18 @@
       </c>
       <c r="AX148" s="5"/>
     </row>
-    <row r="149" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:50">
       <c r="A149" s="2">
         <v>144</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>495</v>
+        <v>415</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>496</v>
+        <v>223</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="E149" s="2">
         <v>-1</v>
@@ -24699,18 +24945,18 @@
       </c>
       <c r="AX149" s="5"/>
     </row>
-    <row r="150" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:50">
       <c r="A150" s="2">
         <v>145</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>498</v>
+        <v>416</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>499</v>
+        <v>224</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="E150" s="2">
         <v>-1</v>
@@ -24849,18 +25095,18 @@
       </c>
       <c r="AX150" s="5"/>
     </row>
-    <row r="151" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:50">
       <c r="A151" s="2">
         <v>146</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>500</v>
+        <v>417</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>501</v>
+        <v>225</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="E151" s="2">
         <v>-1</v>
@@ -24999,18 +25245,18 @@
       </c>
       <c r="AX151" s="5"/>
     </row>
-    <row r="152" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:50">
       <c r="A152" s="2">
         <v>147</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>502</v>
+        <v>418</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>503</v>
+        <v>226</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="E152" s="2">
         <v>-1</v>
@@ -25149,18 +25395,18 @@
       </c>
       <c r="AX152" s="5"/>
     </row>
-    <row r="153" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:50">
       <c r="A153" s="2">
         <v>148</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>504</v>
+      <c r="B153" s="10" t="s">
+        <v>419</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>505</v>
+        <v>227</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="E153" s="2">
         <v>-1</v>
@@ -25299,18 +25545,18 @@
       </c>
       <c r="AX153" s="5"/>
     </row>
-    <row r="154" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:50">
       <c r="A154" s="2">
         <v>149</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>506</v>
+        <v>420</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>507</v>
+        <v>228</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="E154" s="2">
         <v>-1</v>
@@ -25449,18 +25695,18 @@
       </c>
       <c r="AX154" s="5"/>
     </row>
-    <row r="155" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:50">
       <c r="A155" s="2">
         <v>150</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>508</v>
+        <v>421</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>509</v>
+        <v>229</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="E155" s="2">
         <v>-1</v>
@@ -25599,18 +25845,18 @@
       </c>
       <c r="AX155" s="5"/>
     </row>
-    <row r="156" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:50">
       <c r="A156" s="2">
         <v>151</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>510</v>
+        <v>422</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>511</v>
+        <v>230</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="E156" s="2">
         <v>-1</v>
@@ -25749,18 +25995,18 @@
       </c>
       <c r="AX156" s="5"/>
     </row>
-    <row r="157" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:50">
       <c r="A157" s="2">
         <v>152</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>512</v>
+        <v>423</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>513</v>
+        <v>231</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="E157" s="2">
         <v>-1</v>
@@ -25899,18 +26145,18 @@
       </c>
       <c r="AX157" s="5"/>
     </row>
-    <row r="158" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:50">
       <c r="A158" s="2">
         <v>153</v>
       </c>
-      <c r="B158" s="3" t="s">
-        <v>514</v>
+      <c r="B158" s="10" t="s">
+        <v>424</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>515</v>
+        <v>232</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="E158" s="2">
         <v>-1</v>
@@ -26049,18 +26295,18 @@
       </c>
       <c r="AX158" s="5"/>
     </row>
-    <row r="159" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:50">
       <c r="A159" s="2">
         <v>154</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>516</v>
+        <v>425</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>517</v>
+        <v>233</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="E159" s="2">
         <v>-1</v>
@@ -26199,18 +26445,18 @@
       </c>
       <c r="AX159" s="5"/>
     </row>
-    <row r="160" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:50">
       <c r="A160" s="2">
         <v>155</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>518</v>
+        <v>426</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>519</v>
+        <v>234</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="E160" s="2">
         <v>-1</v>
@@ -26349,18 +26595,18 @@
       </c>
       <c r="AX160" s="5"/>
     </row>
-    <row r="161" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:50">
       <c r="A161" s="2">
         <v>156</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>520</v>
+        <v>427</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>521</v>
+        <v>235</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="E161" s="2">
         <v>-1</v>
@@ -26499,18 +26745,18 @@
       </c>
       <c r="AX161" s="5"/>
     </row>
-    <row r="162" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:50">
       <c r="A162" s="2">
         <v>157</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>522</v>
+        <v>428</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>523</v>
+        <v>236</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="E162" s="2">
         <v>-1</v>
@@ -26649,18 +26895,18 @@
       </c>
       <c r="AX162" s="5"/>
     </row>
-    <row r="163" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:50">
       <c r="A163" s="2">
         <v>158</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>524</v>
+        <v>429</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>525</v>
+        <v>600</v>
       </c>
       <c r="E163" s="2">
         <v>-1</v>
@@ -26799,18 +27045,18 @@
       </c>
       <c r="AX163" s="5"/>
     </row>
-    <row r="164" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:50">
       <c r="A164" s="2">
         <v>159</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>526</v>
+      <c r="B164" s="15" t="s">
+        <v>645</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>527</v>
+        <v>237</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>528</v>
+        <v>601</v>
       </c>
       <c r="E164" s="2">
         <v>-1</v>
@@ -26949,18 +27195,18 @@
       </c>
       <c r="AX164" s="5"/>
     </row>
-    <row r="165" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:50">
       <c r="A165" s="2">
         <v>160</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>529</v>
+        <v>430</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>530</v>
+        <v>238</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>531</v>
+        <v>602</v>
       </c>
       <c r="E165" s="2">
         <v>-1</v>
@@ -27099,18 +27345,18 @@
       </c>
       <c r="AX165" s="5"/>
     </row>
-    <row r="166" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:50">
       <c r="A166" s="2">
         <v>161</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>532</v>
+        <v>431</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>533</v>
+        <v>239</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>534</v>
+        <v>603</v>
       </c>
       <c r="E166" s="2">
         <v>-1</v>
@@ -27249,18 +27495,18 @@
       </c>
       <c r="AX166" s="5"/>
     </row>
-    <row r="167" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:50">
       <c r="A167" s="2">
         <v>162</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>535</v>
+        <v>432</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>536</v>
+        <v>240</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>537</v>
+        <v>604</v>
       </c>
       <c r="E167" s="2">
         <v>-1</v>
@@ -27399,18 +27645,18 @@
       </c>
       <c r="AX167" s="5"/>
     </row>
-    <row r="168" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:50">
       <c r="A168" s="2">
         <v>163</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>538</v>
+        <v>433</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>539</v>
+        <v>241</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>540</v>
+        <v>605</v>
       </c>
       <c r="E168" s="2">
         <v>-1</v>
@@ -27549,18 +27795,18 @@
       </c>
       <c r="AX168" s="5"/>
     </row>
-    <row r="169" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:50">
       <c r="A169" s="2">
         <v>164</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>541</v>
+        <v>434</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>542</v>
+        <v>242</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>543</v>
+        <v>606</v>
       </c>
       <c r="E169" s="2">
         <v>-1</v>
@@ -27699,18 +27945,18 @@
       </c>
       <c r="AX169" s="5"/>
     </row>
-    <row r="170" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:50">
       <c r="A170" s="2">
         <v>165</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>544</v>
+        <v>435</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>545</v>
+        <v>243</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>546</v>
+        <v>607</v>
       </c>
       <c r="E170" s="2">
         <v>-1</v>
@@ -27849,18 +28095,18 @@
       </c>
       <c r="AX170" s="5"/>
     </row>
-    <row r="171" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:50">
       <c r="A171" s="2">
         <v>166</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>547</v>
+        <v>436</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>548</v>
+        <v>244</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>549</v>
+        <v>608</v>
       </c>
       <c r="E171" s="2">
         <v>-1</v>
@@ -27999,18 +28245,18 @@
       </c>
       <c r="AX171" s="5"/>
     </row>
-    <row r="172" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:50">
       <c r="A172" s="2">
         <v>167</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>550</v>
+        <v>437</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>551</v>
+        <v>609</v>
       </c>
       <c r="E172" s="2">
         <v>-1</v>
@@ -28149,18 +28395,18 @@
       </c>
       <c r="AX172" s="5"/>
     </row>
-    <row r="173" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:50">
       <c r="A173" s="2">
         <v>168</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>552</v>
+        <v>438</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>553</v>
+        <v>245</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>551</v>
+        <v>609</v>
       </c>
       <c r="E173" s="2">
         <v>-1</v>
@@ -28299,18 +28545,18 @@
       </c>
       <c r="AX173" s="5"/>
     </row>
-    <row r="174" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:50">
       <c r="A174" s="2">
         <v>169</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>554</v>
+        <v>439</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>555</v>
+        <v>246</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>551</v>
+        <v>609</v>
       </c>
       <c r="E174" s="2">
         <v>-1</v>
@@ -28449,18 +28695,18 @@
       </c>
       <c r="AX174" s="5"/>
     </row>
-    <row r="175" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:50">
       <c r="A175" s="2">
         <v>170</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>556</v>
+        <v>440</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>557</v>
+        <v>247</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>551</v>
+        <v>609</v>
       </c>
       <c r="E175" s="2">
         <v>-1</v>
@@ -28599,18 +28845,18 @@
       </c>
       <c r="AX175" s="5"/>
     </row>
-    <row r="176" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:50">
       <c r="A176" s="2">
         <v>171</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>558</v>
+        <v>441</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>559</v>
+        <v>248</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>560</v>
+        <v>610</v>
       </c>
       <c r="E176" s="2">
         <v>-1</v>
@@ -28749,18 +28995,18 @@
       </c>
       <c r="AX176" s="5"/>
     </row>
-    <row r="177" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:50">
       <c r="A177" s="2">
         <v>172</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>561</v>
+        <v>442</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>562</v>
+        <v>249</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>563</v>
+        <v>611</v>
       </c>
       <c r="E177" s="2">
         <v>-1</v>
@@ -28899,18 +29145,18 @@
       </c>
       <c r="AX177" s="5"/>
     </row>
-    <row r="178" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:50">
       <c r="A178" s="2">
         <v>173</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>564</v>
+        <v>443</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>565</v>
+        <v>250</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>566</v>
+        <v>612</v>
       </c>
       <c r="E178" s="2">
         <v>-1</v>
@@ -29049,18 +29295,18 @@
       </c>
       <c r="AX178" s="5"/>
     </row>
-    <row r="179" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:50">
       <c r="A179" s="2">
         <v>174</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>567</v>
+        <v>444</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>568</v>
+        <v>251</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>569</v>
+        <v>613</v>
       </c>
       <c r="E179" s="2">
         <v>-1</v>
@@ -29199,18 +29445,18 @@
       </c>
       <c r="AX179" s="5"/>
     </row>
-    <row r="180" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:50">
       <c r="A180" s="2">
         <v>175</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>570</v>
+      <c r="B180" s="15" t="s">
+        <v>646</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>571</v>
+        <v>252</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>572</v>
+        <v>614</v>
       </c>
       <c r="E180" s="2">
         <v>-1</v>
@@ -29349,18 +29595,18 @@
       </c>
       <c r="AX180" s="5"/>
     </row>
-    <row r="181" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:50">
       <c r="A181" s="2">
         <v>176</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>573</v>
+        <v>445</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>574</v>
+        <v>253</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E181" s="2">
         <v>-1</v>
@@ -29499,18 +29745,18 @@
       </c>
       <c r="AX181" s="5"/>
     </row>
-    <row r="182" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:50">
       <c r="A182" s="2">
         <v>177</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>576</v>
+        <v>446</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>577</v>
+        <v>254</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>578</v>
+        <v>616</v>
       </c>
       <c r="E182" s="2">
         <v>-1</v>
@@ -29649,18 +29895,18 @@
       </c>
       <c r="AX182" s="5"/>
     </row>
-    <row r="183" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:50">
       <c r="A183" s="2">
         <v>178</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>579</v>
+        <v>447</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>580</v>
+        <v>255</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>581</v>
+        <v>617</v>
       </c>
       <c r="E183" s="2">
         <v>-1</v>
@@ -29799,18 +30045,18 @@
       </c>
       <c r="AX183" s="5"/>
     </row>
-    <row r="184" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:50">
       <c r="A184" s="2">
         <v>179</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>582</v>
+        <v>448</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>583</v>
+        <v>256</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>584</v>
+        <v>618</v>
       </c>
       <c r="E184" s="2">
         <v>-1</v>
@@ -29949,18 +30195,18 @@
       </c>
       <c r="AX184" s="5"/>
     </row>
-    <row r="185" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:50">
       <c r="A185" s="2">
         <v>180</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>585</v>
+        <v>449</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>586</v>
+        <v>257</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
       <c r="E185" s="2">
         <v>-1</v>
@@ -30099,18 +30345,18 @@
       </c>
       <c r="AX185" s="5"/>
     </row>
-    <row r="186" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:50">
       <c r="A186" s="2">
         <v>181</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>588</v>
+        <v>450</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>565</v>
+        <v>250</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>589</v>
+        <v>620</v>
       </c>
       <c r="E186" s="2">
         <v>-1</v>
@@ -30249,18 +30495,18 @@
       </c>
       <c r="AX186" s="5"/>
     </row>
-    <row r="187" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:50">
       <c r="A187" s="2">
         <v>182</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>590</v>
+        <v>451</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>591</v>
+        <v>258</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>592</v>
+        <v>621</v>
       </c>
       <c r="E187" s="2">
         <v>-1</v>
@@ -30399,18 +30645,18 @@
       </c>
       <c r="AX187" s="5"/>
     </row>
-    <row r="188" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:50">
       <c r="A188" s="2">
         <v>183</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>593</v>
+        <v>452</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>594</v>
+        <v>259</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>595</v>
+        <v>622</v>
       </c>
       <c r="E188" s="2">
         <v>-1</v>
@@ -30549,18 +30795,18 @@
       </c>
       <c r="AX188" s="5"/>
     </row>
-    <row r="189" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:50">
       <c r="A189" s="2">
         <v>184</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>596</v>
+        <v>453</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>597</v>
+        <v>260</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>598</v>
+        <v>623</v>
       </c>
       <c r="E189" s="2">
         <v>-1</v>
@@ -30699,18 +30945,18 @@
       </c>
       <c r="AX189" s="5"/>
     </row>
-    <row r="190" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:50">
       <c r="A190" s="2">
         <v>185</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>599</v>
+        <v>454</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>600</v>
+        <v>261</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="E190" s="2">
         <v>-1</v>
@@ -30849,18 +31095,18 @@
       </c>
       <c r="AX190" s="5"/>
     </row>
-    <row r="191" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:50">
       <c r="A191" s="2">
         <v>186</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>602</v>
+        <v>455</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>603</v>
+        <v>262</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>604</v>
+        <v>625</v>
       </c>
       <c r="E191" s="2">
         <v>-1</v>
@@ -30999,18 +31245,18 @@
       </c>
       <c r="AX191" s="5"/>
     </row>
-    <row r="192" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:50">
       <c r="A192" s="2">
         <v>187</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>605</v>
+        <v>456</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>523</v>
+        <v>236</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="E192" s="2">
         <v>-1</v>
@@ -31149,18 +31395,18 @@
       </c>
       <c r="AX192" s="5"/>
     </row>
-    <row r="193" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:50">
       <c r="A193" s="2">
         <v>188</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>607</v>
+        <v>457</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>608</v>
+        <v>263</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="E193" s="2">
         <v>-1</v>
@@ -31299,18 +31545,18 @@
       </c>
       <c r="AX193" s="5"/>
     </row>
-    <row r="194" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:50">
       <c r="A194" s="2">
         <v>189</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>609</v>
+        <v>458</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>610</v>
+        <v>264</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="E194" s="2">
         <v>-1</v>
@@ -31449,18 +31695,18 @@
       </c>
       <c r="AX194" s="5"/>
     </row>
-    <row r="195" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:50">
       <c r="A195" s="2">
         <v>190</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>612</v>
+        <v>459</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>613</v>
+        <v>265</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="E195" s="2">
         <v>-1</v>
@@ -31599,18 +31845,18 @@
       </c>
       <c r="AX195" s="5"/>
     </row>
-    <row r="196" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:50">
       <c r="A196" s="2">
         <v>191</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>615</v>
+        <v>460</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>565</v>
+        <v>250</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="E196" s="2">
         <v>-1</v>
@@ -31749,18 +31995,18 @@
       </c>
       <c r="AX196" s="5"/>
     </row>
-    <row r="197" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:50">
       <c r="A197" s="2">
         <v>192</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>617</v>
+        <v>461</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>618</v>
+        <v>266</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="E197" s="2">
         <v>-1</v>
@@ -31899,18 +32145,18 @@
       </c>
       <c r="AX197" s="5"/>
     </row>
-    <row r="198" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:50">
       <c r="A198" s="2">
         <v>193</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>620</v>
+        <v>462</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>621</v>
+        <v>267</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="E198" s="2">
         <v>-1</v>
@@ -32049,18 +32295,18 @@
       </c>
       <c r="AX198" s="5"/>
     </row>
-    <row r="199" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:50">
       <c r="A199" s="2">
         <v>194</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>623</v>
+        <v>463</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>624</v>
+        <v>268</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="E199" s="2">
         <v>-1</v>
@@ -32199,18 +32445,18 @@
       </c>
       <c r="AX199" s="5"/>
     </row>
-    <row r="200" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:50">
       <c r="A200" s="2">
         <v>195</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>626</v>
+        <v>464</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="E200" s="2">
         <v>-1</v>
@@ -32349,18 +32595,18 @@
       </c>
       <c r="AX200" s="5"/>
     </row>
-    <row r="201" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:50">
       <c r="A201" s="2">
         <v>196</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>628</v>
+        <v>465</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>629</v>
+        <v>269</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E201" s="2">
         <v>-1</v>
@@ -32499,18 +32745,18 @@
       </c>
       <c r="AX201" s="5"/>
     </row>
-    <row r="202" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:50">
       <c r="A202" s="2">
         <v>197</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>631</v>
+        <v>466</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>632</v>
+        <v>270</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E202" s="2">
         <v>-1</v>
@@ -32649,18 +32895,18 @@
       </c>
       <c r="AX202" s="5"/>
     </row>
-    <row r="203" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:50">
       <c r="A203" s="2">
         <v>198</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>634</v>
+        <v>467</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E203" s="2">
         <v>-1</v>
@@ -32799,18 +33045,18 @@
       </c>
       <c r="AX203" s="5"/>
     </row>
-    <row r="204" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:50">
       <c r="A204" s="2">
         <v>199</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>635</v>
+        <v>468</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>636</v>
+        <v>271</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E204" s="2">
         <v>-1</v>
@@ -32948,6 +33194,1049 @@
         <v>-1</v>
       </c>
       <c r="AX204" s="5"/>
+    </row>
+    <row r="205" spans="1:50">
+      <c r="A205">
+        <v>200</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="C205" t="s">
+        <v>139</v>
+      </c>
+      <c r="D205" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="E205">
+        <v>98</v>
+      </c>
+      <c r="F205">
+        <v>-1</v>
+      </c>
+      <c r="G205">
+        <v>-1</v>
+      </c>
+      <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <v>2</v>
+      </c>
+      <c r="N205">
+        <v>0</v>
+      </c>
+      <c r="O205">
+        <v>30</v>
+      </c>
+      <c r="P205">
+        <v>3</v>
+      </c>
+      <c r="Q205">
+        <v>5</v>
+      </c>
+      <c r="R205">
+        <v>3</v>
+      </c>
+      <c r="S205">
+        <v>3</v>
+      </c>
+      <c r="T205">
+        <v>3</v>
+      </c>
+      <c r="U205">
+        <v>3</v>
+      </c>
+      <c r="V205">
+        <v>3</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <v>0</v>
+      </c>
+      <c r="AB205">
+        <v>0</v>
+      </c>
+      <c r="AC205">
+        <v>0</v>
+      </c>
+      <c r="AD205">
+        <v>1</v>
+      </c>
+      <c r="AE205">
+        <v>0</v>
+      </c>
+      <c r="AF205">
+        <v>-1</v>
+      </c>
+      <c r="AG205">
+        <v>2</v>
+      </c>
+      <c r="AH205">
+        <v>0</v>
+      </c>
+      <c r="AI205">
+        <v>0</v>
+      </c>
+      <c r="AJ205">
+        <v>0</v>
+      </c>
+      <c r="AK205">
+        <v>0</v>
+      </c>
+      <c r="AL205">
+        <v>0</v>
+      </c>
+      <c r="AM205">
+        <v>0</v>
+      </c>
+      <c r="AN205">
+        <v>0</v>
+      </c>
+      <c r="AO205">
+        <v>0</v>
+      </c>
+      <c r="AP205">
+        <v>0</v>
+      </c>
+      <c r="AQ205">
+        <v>0</v>
+      </c>
+      <c r="AR205">
+        <v>0</v>
+      </c>
+      <c r="AS205">
+        <v>10</v>
+      </c>
+      <c r="AT205">
+        <v>250</v>
+      </c>
+      <c r="AU205">
+        <v>-1</v>
+      </c>
+      <c r="AV205">
+        <v>0</v>
+      </c>
+      <c r="AW205">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:50">
+      <c r="A206" s="2">
+        <v>201</v>
+      </c>
+      <c r="B206" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D206" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="E206" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F206" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G206" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H206" s="2">
+        <v>5</v>
+      </c>
+      <c r="I206" s="2">
+        <v>0</v>
+      </c>
+      <c r="J206" s="2">
+        <v>10</v>
+      </c>
+      <c r="K206" s="2">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2">
+        <v>0</v>
+      </c>
+      <c r="M206" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N206" s="2">
+        <v>0</v>
+      </c>
+      <c r="O206" s="2">
+        <v>10</v>
+      </c>
+      <c r="P206" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q206" s="2">
+        <v>0</v>
+      </c>
+      <c r="R206" s="2">
+        <v>2</v>
+      </c>
+      <c r="S206" s="2">
+        <v>0</v>
+      </c>
+      <c r="T206" s="2">
+        <v>0</v>
+      </c>
+      <c r="U206" s="2">
+        <v>0</v>
+      </c>
+      <c r="V206" s="2">
+        <v>1</v>
+      </c>
+      <c r="W206" s="2">
+        <v>0</v>
+      </c>
+      <c r="X206" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y206" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF206" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AG206" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT206" s="2">
+        <v>50</v>
+      </c>
+      <c r="AU206" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AV206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW206" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:50">
+      <c r="A207" s="2">
+        <v>202</v>
+      </c>
+      <c r="B207" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D207" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="E207" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F207" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G207" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H207" s="2">
+        <v>5</v>
+      </c>
+      <c r="I207" s="2">
+        <v>0</v>
+      </c>
+      <c r="J207" s="2">
+        <v>0</v>
+      </c>
+      <c r="K207" s="2">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2">
+        <v>0</v>
+      </c>
+      <c r="M207" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N207" s="2">
+        <v>0</v>
+      </c>
+      <c r="O207" s="2">
+        <v>10</v>
+      </c>
+      <c r="P207" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q207" s="2">
+        <v>0</v>
+      </c>
+      <c r="R207" s="2">
+        <v>0</v>
+      </c>
+      <c r="S207" s="2">
+        <v>2</v>
+      </c>
+      <c r="T207" s="2">
+        <v>0</v>
+      </c>
+      <c r="U207" s="2">
+        <v>2</v>
+      </c>
+      <c r="V207" s="2">
+        <v>0</v>
+      </c>
+      <c r="W207" s="2">
+        <v>0</v>
+      </c>
+      <c r="X207" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y207" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF207" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AG207" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT207" s="2">
+        <v>50</v>
+      </c>
+      <c r="AU207" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AV207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW207" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:50">
+      <c r="A208" s="2">
+        <v>203</v>
+      </c>
+      <c r="B208" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D208" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="E208" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F208" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G208" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H208" s="2">
+        <v>5</v>
+      </c>
+      <c r="I208" s="2">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2">
+        <v>5</v>
+      </c>
+      <c r="K208" s="2">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2">
+        <v>0</v>
+      </c>
+      <c r="M208" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N208" s="2">
+        <v>0</v>
+      </c>
+      <c r="O208" s="2">
+        <v>5</v>
+      </c>
+      <c r="P208" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q208" s="2">
+        <v>2</v>
+      </c>
+      <c r="R208" s="2">
+        <v>0</v>
+      </c>
+      <c r="S208" s="2">
+        <v>0</v>
+      </c>
+      <c r="T208" s="2">
+        <v>0</v>
+      </c>
+      <c r="U208" s="2">
+        <v>0</v>
+      </c>
+      <c r="V208" s="2">
+        <v>0</v>
+      </c>
+      <c r="W208" s="2">
+        <v>0</v>
+      </c>
+      <c r="X208" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y208" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF208" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AG208" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT208" s="2">
+        <v>50</v>
+      </c>
+      <c r="AU208" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AV208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW208" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:49">
+      <c r="A209" s="2">
+        <v>204</v>
+      </c>
+      <c r="B209" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D209" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="E209" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F209" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G209" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H209" s="2">
+        <v>5</v>
+      </c>
+      <c r="I209" s="2">
+        <v>0</v>
+      </c>
+      <c r="J209" s="2">
+        <v>5</v>
+      </c>
+      <c r="K209" s="2">
+        <v>0</v>
+      </c>
+      <c r="L209" s="2">
+        <v>0</v>
+      </c>
+      <c r="M209" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N209" s="2">
+        <v>0</v>
+      </c>
+      <c r="O209" s="2">
+        <v>5</v>
+      </c>
+      <c r="P209" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q209" s="2">
+        <v>0</v>
+      </c>
+      <c r="R209" s="2">
+        <v>1</v>
+      </c>
+      <c r="S209" s="2">
+        <v>0</v>
+      </c>
+      <c r="T209" s="2">
+        <v>0</v>
+      </c>
+      <c r="U209" s="2">
+        <v>0</v>
+      </c>
+      <c r="V209" s="2">
+        <v>0</v>
+      </c>
+      <c r="W209" s="2">
+        <v>0</v>
+      </c>
+      <c r="X209" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y209" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF209" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AG209" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT209" s="2">
+        <v>50</v>
+      </c>
+      <c r="AU209" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AV209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW209" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:49">
+      <c r="A210" s="2">
+        <v>205</v>
+      </c>
+      <c r="B210" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D210" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="E210" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F210" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G210" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H210" s="2">
+        <v>5</v>
+      </c>
+      <c r="I210" s="2">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2">
+        <v>5</v>
+      </c>
+      <c r="K210" s="2">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2">
+        <v>0</v>
+      </c>
+      <c r="M210" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N210" s="2">
+        <v>0</v>
+      </c>
+      <c r="O210" s="2">
+        <v>5</v>
+      </c>
+      <c r="P210" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q210" s="2">
+        <v>0</v>
+      </c>
+      <c r="R210" s="2">
+        <v>1</v>
+      </c>
+      <c r="S210" s="2">
+        <v>0</v>
+      </c>
+      <c r="T210" s="2">
+        <v>0</v>
+      </c>
+      <c r="U210" s="2">
+        <v>0</v>
+      </c>
+      <c r="V210" s="2">
+        <v>0</v>
+      </c>
+      <c r="W210" s="2">
+        <v>0</v>
+      </c>
+      <c r="X210" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y210" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF210" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AG210" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT210" s="2">
+        <v>50</v>
+      </c>
+      <c r="AU210" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AV210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW210" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:49">
+      <c r="A211" s="2">
+        <v>206</v>
+      </c>
+      <c r="B211" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D211" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="E211" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F211" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G211" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H211" s="2">
+        <v>5</v>
+      </c>
+      <c r="I211" s="2">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2">
+        <v>5</v>
+      </c>
+      <c r="K211" s="2">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2">
+        <v>0</v>
+      </c>
+      <c r="M211" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N211" s="2">
+        <v>0</v>
+      </c>
+      <c r="O211" s="2">
+        <v>5</v>
+      </c>
+      <c r="P211" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q211" s="2">
+        <v>0</v>
+      </c>
+      <c r="R211" s="2">
+        <v>1</v>
+      </c>
+      <c r="S211" s="2">
+        <v>0</v>
+      </c>
+      <c r="T211" s="2">
+        <v>0</v>
+      </c>
+      <c r="U211" s="2">
+        <v>0</v>
+      </c>
+      <c r="V211" s="2">
+        <v>0</v>
+      </c>
+      <c r="W211" s="2">
+        <v>2</v>
+      </c>
+      <c r="X211" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y211" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF211" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AG211" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT211" s="2">
+        <v>50</v>
+      </c>
+      <c r="AU211" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AV211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW211" s="2">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/jyx2/Assets/Mods/JYX2/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/物品.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\jynew-20230510\jyx2\Assets\Mods\JYX2\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirr/Study/Games/Jynew/jynew/jyx2/Assets/Mods/JYX2/Configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9BA2F8-AB16-4D54-B123-56D48848F4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586F4FB7-F666-A748-9C8D-6916796E6D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="2415" windowWidth="32040" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1580" windowWidth="29400" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="659">
   <si>
     <t>Id</t>
   </si>
@@ -1474,9 +1474,6 @@
     <t>피의</t>
   </si>
   <si>
-    <t>무용</t>
-  </si>
-  <si>
     <t>최후</t>
   </si>
   <si>
@@ -1981,18 +1978,7 @@
     <t>나의 형제이자 일상복， 방어력이 강하다</t>
   </si>
   <si>
-    <t>쓸모 없음</t>
-  </si>
-  <si>
     <t>마지막이다</t>
-  </si>
-  <si>
-    <t>비천심법</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>회귀술서. 절세의 심법이자 경공서</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>회풍낙안검법</t>
@@ -2144,14 +2130,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>기초심법</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>누구나 구할 수 있는 심신을 단련할 수 있는 기초 심법</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>기초의서</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2189,6 +2167,19 @@
   </si>
   <si>
     <t>누구나 구할 수 있는 권장을 단련할 수 있는 기초 권법</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>용뢰천심결</t>
+  </si>
+  <si>
+    <t>용뢰신검</t>
+  </si>
+  <si>
+    <t>태고적부터 존재한 우주의 힘이 담긴 전설의 신검</t>
+  </si>
+  <si>
+    <t>회귀술서. 절세의 심법이자 경공서</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2196,7 +2187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2267,6 +2258,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2300,6 +2292,26 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="돋움체"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="DotumChe"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="DotumChe"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -2338,7 +2350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2363,6 +2375,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -2713,18 +2737,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX211"/>
+  <dimension ref="A1:AX210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C168" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M205" sqref="M205"/>
+      <selection pane="bottomRight" activeCell="K203" sqref="K203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="50" max="50" width="28.375" style="1" customWidth="1"/>
+    <col min="50" max="50" width="28.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
@@ -3192,7 +3216,7 @@
         <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E5" s="2">
         <v>-1</v>
@@ -3342,7 +3366,7 @@
         <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E6" s="2">
         <v>-1</v>
@@ -3492,7 +3516,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E7" s="2">
         <v>-1</v>
@@ -3642,7 +3666,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E8" s="2">
         <v>-1</v>
@@ -3792,7 +3816,7 @@
         <v>102</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E9" s="2">
         <v>-1</v>
@@ -3942,7 +3966,7 @@
         <v>103</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E10" s="2">
         <v>-1</v>
@@ -4092,7 +4116,7 @@
         <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E11" s="2">
         <v>-1</v>
@@ -4242,7 +4266,7 @@
         <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E12" s="2">
         <v>-1</v>
@@ -4392,7 +4416,7 @@
         <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E13" s="2">
         <v>-1</v>
@@ -4542,7 +4566,7 @@
         <v>107</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E14" s="2">
         <v>-1</v>
@@ -4692,7 +4716,7 @@
         <v>108</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E15" s="2">
         <v>-1</v>
@@ -4842,7 +4866,7 @@
         <v>109</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E16" s="2">
         <v>-1</v>
@@ -4992,7 +5016,7 @@
         <v>110</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E17" s="2">
         <v>-1</v>
@@ -5142,7 +5166,7 @@
         <v>111</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E18" s="2">
         <v>-1</v>
@@ -5292,7 +5316,7 @@
         <v>111</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E19" s="2">
         <v>-1</v>
@@ -5442,7 +5466,7 @@
         <v>112</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E20" s="2">
         <v>-1</v>
@@ -5586,13 +5610,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E21" s="2">
         <v>-1</v>
@@ -5742,7 +5766,7 @@
         <v>113</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E22" s="2">
         <v>-1</v>
@@ -5892,7 +5916,7 @@
         <v>114</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E23" s="2">
         <v>-1</v>
@@ -6042,7 +6066,7 @@
         <v>115</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E24" s="2">
         <v>-1</v>
@@ -6192,7 +6216,7 @@
         <v>116</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E25" s="2">
         <v>-1</v>
@@ -6342,7 +6366,7 @@
         <v>117</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E26" s="2">
         <v>-1</v>
@@ -6492,7 +6516,7 @@
         <v>118</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E27" s="2">
         <v>-1</v>
@@ -6642,7 +6666,7 @@
         <v>119</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E28" s="2">
         <v>-1</v>
@@ -6792,7 +6816,7 @@
         <v>120</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E29" s="2">
         <v>-1</v>
@@ -6942,7 +6966,7 @@
         <v>121</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E30" s="2">
         <v>-1</v>
@@ -7092,7 +7116,7 @@
         <v>122</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E31" s="2">
         <v>-1</v>
@@ -7236,13 +7260,13 @@
         <v>27</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E32" s="2">
         <v>-1</v>
@@ -7392,7 +7416,7 @@
         <v>124</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E33" s="2">
         <v>-1</v>
@@ -7542,7 +7566,7 @@
         <v>125</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E34" s="2">
         <v>-1</v>
@@ -7692,7 +7716,7 @@
         <v>126</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E35" s="2">
         <v>-1</v>
@@ -7842,7 +7866,7 @@
         <v>127</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E36" s="2">
         <v>-1</v>
@@ -7992,7 +8016,7 @@
         <v>128</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E37" s="2">
         <v>-1</v>
@@ -8142,7 +8166,7 @@
         <v>129</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E38" s="2">
         <v>-1</v>
@@ -8292,7 +8316,7 @@
         <v>125</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E39" s="2">
         <v>-1</v>
@@ -8442,7 +8466,7 @@
         <v>130</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E40" s="2">
         <v>-1</v>
@@ -8592,7 +8616,7 @@
         <v>131</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E41" s="2">
         <v>-1</v>
@@ -8742,7 +8766,7 @@
         <v>125</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E42" s="2">
         <v>-1</v>
@@ -8892,7 +8916,7 @@
         <v>132</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E43" s="2">
         <v>-1</v>
@@ -9042,7 +9066,7 @@
         <v>133</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E44" s="2">
         <v>-1</v>
@@ -9192,7 +9216,7 @@
         <v>101</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E45" s="2">
         <v>-1</v>
@@ -9342,7 +9366,7 @@
         <v>134</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E46" s="2">
         <v>-1</v>
@@ -9492,7 +9516,7 @@
         <v>135</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E47" s="2">
         <v>-1</v>
@@ -9642,7 +9666,7 @@
         <v>136</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E48" s="2">
         <v>-1</v>
@@ -9792,7 +9816,7 @@
         <v>137</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E49" s="2">
         <v>-1</v>
@@ -9942,7 +9966,7 @@
         <v>138</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E50" s="2">
         <v>-1</v>
@@ -10092,7 +10116,7 @@
         <v>139</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E51" s="2">
         <v>-1</v>
@@ -10242,7 +10266,7 @@
         <v>140</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E52" s="2">
         <v>-1</v>
@@ -10392,7 +10416,7 @@
         <v>141</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E53" s="2">
         <v>-1</v>
@@ -10544,7 +10568,7 @@
         <v>143</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E54" s="2">
         <v>-1</v>
@@ -10696,7 +10720,7 @@
         <v>145</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E55" s="2">
         <v>-1</v>
@@ -10848,7 +10872,7 @@
         <v>147</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E56" s="2">
         <v>-1</v>
@@ -11000,7 +11024,7 @@
         <v>149</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E57" s="2">
         <v>-1</v>
@@ -11152,7 +11176,7 @@
         <v>151</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E58" s="2">
         <v>-1</v>
@@ -11304,7 +11328,7 @@
         <v>153</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E59" s="2">
         <v>11</v>
@@ -11454,7 +11478,7 @@
         <v>154</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E60" s="2">
         <v>6</v>
@@ -11604,7 +11628,7 @@
         <v>130</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E61" s="2">
         <v>15</v>
@@ -11754,7 +11778,7 @@
         <v>155</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E62" s="2">
         <v>16</v>
@@ -11904,7 +11928,7 @@
         <v>156</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E63" s="2">
         <v>20</v>
@@ -12054,7 +12078,7 @@
         <v>157</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E64" s="2">
         <v>18</v>
@@ -12204,7 +12228,7 @@
         <v>158</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E65" s="2">
         <v>23</v>
@@ -12354,7 +12378,7 @@
         <v>159</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E66" s="2">
         <v>24</v>
@@ -12504,7 +12528,7 @@
         <v>160</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E67" s="2">
         <v>25</v>
@@ -12654,7 +12678,7 @@
         <v>161</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E68" s="2">
         <v>29</v>
@@ -12804,7 +12828,7 @@
         <v>162</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E69" s="2">
         <v>28</v>
@@ -12943,7 +12967,7 @@
       </c>
       <c r="AX69" s="5"/>
     </row>
-    <row r="70" spans="1:50">
+    <row r="70" spans="1:50" ht="15">
       <c r="A70" s="2">
         <v>65</v>
       </c>
@@ -12954,7 +12978,7 @@
         <v>163</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E70" s="2">
         <v>27</v>
@@ -13104,7 +13128,7 @@
         <v>164</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E71" s="2">
         <v>30</v>
@@ -13254,7 +13278,7 @@
         <v>165</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E72" s="2">
         <v>89</v>
@@ -13404,7 +13428,7 @@
         <v>166</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E73" s="2">
         <v>45</v>
@@ -13543,18 +13567,18 @@
       </c>
       <c r="AX73" s="5"/>
     </row>
-    <row r="74" spans="1:50">
+    <row r="74" spans="1:50" ht="15">
       <c r="A74" s="2">
         <v>69</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E74" s="2">
         <v>46</v>
@@ -13704,7 +13728,7 @@
         <v>154</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E75" s="2">
         <v>53</v>
@@ -13854,7 +13878,7 @@
         <v>167</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E76" s="2">
         <v>47</v>
@@ -14004,7 +14028,7 @@
         <v>168</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E77" s="2">
         <v>54</v>
@@ -14154,7 +14178,7 @@
         <v>169</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E78" s="2">
         <v>49</v>
@@ -14304,7 +14328,7 @@
         <v>170</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E79" s="2">
         <v>55</v>
@@ -14454,7 +14478,7 @@
         <v>171</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E80" s="2">
         <v>58</v>
@@ -14604,7 +14628,7 @@
         <v>172</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E81" s="2">
         <v>59</v>
@@ -14754,7 +14778,7 @@
         <v>173</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E82" s="2">
         <v>57</v>
@@ -14904,7 +14928,7 @@
         <v>174</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E83" s="2">
         <v>60</v>
@@ -15054,7 +15078,7 @@
         <v>175</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E84" s="2">
         <v>61</v>
@@ -15204,7 +15228,7 @@
         <v>176</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E85" s="2">
         <v>63</v>
@@ -15354,7 +15378,7 @@
         <v>177</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E86" s="2">
         <v>66</v>
@@ -15504,7 +15528,7 @@
         <v>178</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E87" s="2">
         <v>65</v>
@@ -15654,7 +15678,7 @@
         <v>179</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E88" s="2">
         <v>64</v>
@@ -15804,7 +15828,7 @@
         <v>145</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E89" s="2">
         <v>67</v>
@@ -15954,7 +15978,7 @@
         <v>180</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E90" s="2">
         <v>68</v>
@@ -16104,7 +16128,7 @@
         <v>149</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E91" s="2">
         <v>77</v>
@@ -16254,7 +16278,7 @@
         <v>181</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E92" s="2">
         <v>78</v>
@@ -16404,7 +16428,7 @@
         <v>182</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E93" s="2">
         <v>-1</v>
@@ -16554,7 +16578,7 @@
         <v>180</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E94" s="2">
         <v>-1</v>
@@ -16706,7 +16730,7 @@
         <v>184</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E95" s="2">
         <v>-1</v>
@@ -16856,7 +16880,7 @@
         <v>185</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E96" s="2">
         <v>-1</v>
@@ -17006,7 +17030,7 @@
         <v>186</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E97" s="2">
         <v>-1</v>
@@ -17156,7 +17180,7 @@
         <v>187</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E98" s="2">
         <v>-1</v>
@@ -17306,7 +17330,7 @@
         <v>111</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E99" s="2">
         <v>-1</v>
@@ -17456,7 +17480,7 @@
         <v>111</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E100" s="2">
         <v>92</v>
@@ -17606,7 +17630,7 @@
         <v>188</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E101" s="2">
         <v>-1</v>
@@ -17756,7 +17780,7 @@
         <v>189</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E102" s="2">
         <v>-1</v>
@@ -17906,7 +17930,7 @@
         <v>190</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E103" s="2">
         <v>-1</v>
@@ -18056,7 +18080,7 @@
         <v>191</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E104" s="2">
         <v>-1</v>
@@ -18206,7 +18230,7 @@
         <v>168</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E105" s="2">
         <v>-1</v>
@@ -18356,7 +18380,7 @@
         <v>180</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E106" s="2">
         <v>-1</v>
@@ -18506,7 +18530,7 @@
         <v>149</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E107" s="2">
         <v>-1</v>
@@ -18656,7 +18680,7 @@
         <v>192</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E108" s="2">
         <v>-1</v>
@@ -18806,7 +18830,7 @@
         <v>193</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E109" s="2">
         <v>-1</v>
@@ -18956,7 +18980,7 @@
         <v>194</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E110" s="2">
         <v>-1</v>
@@ -19106,7 +19130,7 @@
         <v>173</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E111" s="2">
         <v>-1</v>
@@ -19256,7 +19280,7 @@
         <v>195</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E112" s="2">
         <v>-1</v>
@@ -19406,7 +19430,7 @@
         <v>196</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E113" s="2">
         <v>-1</v>
@@ -19556,7 +19580,7 @@
         <v>197</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E114" s="2">
         <v>-1</v>
@@ -19706,7 +19730,7 @@
         <v>168</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E115" s="2">
         <v>-1</v>
@@ -19856,7 +19880,7 @@
         <v>198</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E116" s="2">
         <v>-1</v>
@@ -20006,7 +20030,7 @@
         <v>199</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E117" s="2">
         <v>-1</v>
@@ -20156,7 +20180,7 @@
         <v>200</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E118" s="2">
         <v>-1</v>
@@ -20306,7 +20330,7 @@
         <v>201</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E119" s="2">
         <v>-1</v>
@@ -20456,7 +20480,7 @@
         <v>176</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E120" s="2">
         <v>-1</v>
@@ -20606,7 +20630,7 @@
         <v>202</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E121" s="2">
         <v>-1</v>
@@ -20756,7 +20780,7 @@
         <v>203</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E122" s="2">
         <v>-1</v>
@@ -20906,7 +20930,7 @@
         <v>204</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E123" s="2">
         <v>-1</v>
@@ -21056,7 +21080,7 @@
         <v>180</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E124" s="2">
         <v>-1</v>
@@ -21206,7 +21230,7 @@
         <v>205</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E125" s="2">
         <v>-1</v>
@@ -21356,7 +21380,7 @@
         <v>206</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E126" s="2">
         <v>-1</v>
@@ -21495,18 +21519,18 @@
       </c>
       <c r="AX126" s="5"/>
     </row>
-    <row r="127" spans="1:50">
+    <row r="127" spans="1:50" ht="15">
       <c r="A127" s="2">
         <v>122</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E127" s="2">
         <v>-1</v>
@@ -21656,7 +21680,7 @@
         <v>208</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E128" s="2">
         <v>-1</v>
@@ -21806,7 +21830,7 @@
         <v>209</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E129" s="2">
         <v>-1</v>
@@ -21956,7 +21980,7 @@
         <v>210</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E130" s="2">
         <v>-1</v>
@@ -22106,7 +22130,7 @@
         <v>211</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E131" s="2">
         <v>-1</v>
@@ -22256,7 +22280,7 @@
         <v>212</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E132" s="2">
         <v>-1</v>
@@ -22406,7 +22430,7 @@
         <v>154</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E133" s="2">
         <v>-1</v>
@@ -22556,7 +22580,7 @@
         <v>213</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E134" s="2">
         <v>-1</v>
@@ -22706,7 +22730,7 @@
         <v>129</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E135" s="2">
         <v>-1</v>
@@ -22856,7 +22880,7 @@
         <v>129</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E136" s="2">
         <v>-1</v>
@@ -23006,7 +23030,7 @@
         <v>214</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E137" s="2">
         <v>-1</v>
@@ -23156,7 +23180,7 @@
         <v>215</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E138" s="2">
         <v>-1</v>
@@ -23306,7 +23330,7 @@
         <v>216</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E139" s="2">
         <v>-1</v>
@@ -23445,18 +23469,18 @@
       </c>
       <c r="AX139" s="5"/>
     </row>
-    <row r="140" spans="1:50">
+    <row r="140" spans="1:50" ht="15">
       <c r="A140" s="2">
         <v>135</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E140" s="2">
         <v>-1</v>
@@ -23606,7 +23630,7 @@
         <v>218</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E141" s="2">
         <v>-1</v>
@@ -23756,7 +23780,7 @@
         <v>170</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E142" s="2">
         <v>-1</v>
@@ -23906,7 +23930,7 @@
         <v>219</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E143" s="2">
         <v>-1</v>
@@ -24056,7 +24080,7 @@
         <v>101</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E144" s="2">
         <v>-1</v>
@@ -24206,7 +24230,7 @@
         <v>101</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E145" s="2">
         <v>-1</v>
@@ -24356,7 +24380,7 @@
         <v>220</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E146" s="2">
         <v>-1</v>
@@ -24506,7 +24530,7 @@
         <v>221</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E147" s="2">
         <v>-1</v>
@@ -24656,7 +24680,7 @@
         <v>222</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E148" s="2">
         <v>-1</v>
@@ -24806,7 +24830,7 @@
         <v>223</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E149" s="2">
         <v>-1</v>
@@ -24956,7 +24980,7 @@
         <v>224</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E150" s="2">
         <v>-1</v>
@@ -25106,7 +25130,7 @@
         <v>225</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E151" s="2">
         <v>-1</v>
@@ -25256,7 +25280,7 @@
         <v>226</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E152" s="2">
         <v>-1</v>
@@ -25406,7 +25430,7 @@
         <v>227</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E153" s="2">
         <v>-1</v>
@@ -25556,7 +25580,7 @@
         <v>228</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E154" s="2">
         <v>-1</v>
@@ -25706,7 +25730,7 @@
         <v>229</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E155" s="2">
         <v>-1</v>
@@ -25856,7 +25880,7 @@
         <v>230</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E156" s="2">
         <v>-1</v>
@@ -26006,7 +26030,7 @@
         <v>231</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E157" s="2">
         <v>-1</v>
@@ -26156,7 +26180,7 @@
         <v>232</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E158" s="2">
         <v>-1</v>
@@ -26306,7 +26330,7 @@
         <v>233</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E159" s="2">
         <v>-1</v>
@@ -26456,7 +26480,7 @@
         <v>234</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E160" s="2">
         <v>-1</v>
@@ -26606,7 +26630,7 @@
         <v>235</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E161" s="2">
         <v>-1</v>
@@ -26756,7 +26780,7 @@
         <v>236</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E162" s="2">
         <v>-1</v>
@@ -26906,7 +26930,7 @@
         <v>154</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E163" s="2">
         <v>-1</v>
@@ -27050,13 +27074,13 @@
         <v>159</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>237</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E164" s="2">
         <v>-1</v>
@@ -27206,7 +27230,7 @@
         <v>238</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E165" s="2">
         <v>-1</v>
@@ -27356,7 +27380,7 @@
         <v>239</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E166" s="2">
         <v>-1</v>
@@ -27506,7 +27530,7 @@
         <v>240</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E167" s="2">
         <v>-1</v>
@@ -27656,7 +27680,7 @@
         <v>241</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E168" s="2">
         <v>-1</v>
@@ -27806,7 +27830,7 @@
         <v>242</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E169" s="2">
         <v>-1</v>
@@ -27956,7 +27980,7 @@
         <v>243</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E170" s="2">
         <v>-1</v>
@@ -28106,7 +28130,7 @@
         <v>244</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E171" s="2">
         <v>-1</v>
@@ -28256,7 +28280,7 @@
         <v>153</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E172" s="2">
         <v>-1</v>
@@ -28406,7 +28430,7 @@
         <v>245</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E173" s="2">
         <v>-1</v>
@@ -28556,7 +28580,7 @@
         <v>246</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E174" s="2">
         <v>-1</v>
@@ -28706,7 +28730,7 @@
         <v>247</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E175" s="2">
         <v>-1</v>
@@ -28856,7 +28880,7 @@
         <v>248</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E176" s="2">
         <v>-1</v>
@@ -29006,7 +29030,7 @@
         <v>249</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E177" s="2">
         <v>-1</v>
@@ -29156,7 +29180,7 @@
         <v>250</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E178" s="2">
         <v>-1</v>
@@ -29306,7 +29330,7 @@
         <v>251</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E179" s="2">
         <v>-1</v>
@@ -29450,13 +29474,13 @@
         <v>175</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>252</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E180" s="2">
         <v>-1</v>
@@ -29606,7 +29630,7 @@
         <v>253</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E181" s="2">
         <v>-1</v>
@@ -29756,7 +29780,7 @@
         <v>254</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E182" s="2">
         <v>-1</v>
@@ -29906,7 +29930,7 @@
         <v>255</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E183" s="2">
         <v>-1</v>
@@ -30056,7 +30080,7 @@
         <v>256</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E184" s="2">
         <v>-1</v>
@@ -30206,7 +30230,7 @@
         <v>257</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E185" s="2">
         <v>-1</v>
@@ -30356,7 +30380,7 @@
         <v>250</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E186" s="2">
         <v>-1</v>
@@ -30506,7 +30530,7 @@
         <v>258</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E187" s="2">
         <v>-1</v>
@@ -30656,7 +30680,7 @@
         <v>259</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E188" s="2">
         <v>-1</v>
@@ -30806,7 +30830,7 @@
         <v>260</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E189" s="2">
         <v>-1</v>
@@ -30956,7 +30980,7 @@
         <v>261</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E190" s="2">
         <v>-1</v>
@@ -31106,7 +31130,7 @@
         <v>262</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E191" s="2">
         <v>-1</v>
@@ -31256,7 +31280,7 @@
         <v>236</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E192" s="2">
         <v>-1</v>
@@ -31406,7 +31430,7 @@
         <v>263</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E193" s="2">
         <v>-1</v>
@@ -31556,7 +31580,7 @@
         <v>264</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E194" s="2">
         <v>-1</v>
@@ -31706,7 +31730,7 @@
         <v>265</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E195" s="2">
         <v>-1</v>
@@ -31856,7 +31880,7 @@
         <v>250</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E196" s="2">
         <v>-1</v>
@@ -32006,7 +32030,7 @@
         <v>266</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E197" s="2">
         <v>-1</v>
@@ -32156,7 +32180,7 @@
         <v>267</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E198" s="2">
         <v>-1</v>
@@ -32306,7 +32330,7 @@
         <v>268</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E199" s="2">
         <v>-1</v>
@@ -32456,7 +32480,7 @@
         <v>153</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E200" s="2">
         <v>-1</v>
@@ -32606,7 +32630,7 @@
         <v>269</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E201" s="2">
         <v>-1</v>
@@ -32756,7 +32780,7 @@
         <v>270</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E202" s="2">
         <v>-1</v>
@@ -32896,167 +32920,167 @@
       <c r="AX202" s="5"/>
     </row>
     <row r="203" spans="1:50">
-      <c r="A203" s="2">
+      <c r="A203" s="18">
         <v>198</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="E203" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F203" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G203" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H203" s="2">
-        <v>0</v>
-      </c>
-      <c r="I203" s="2">
-        <v>0</v>
-      </c>
-      <c r="J203" s="2">
-        <v>0</v>
-      </c>
-      <c r="K203" s="2">
-        <v>0</v>
-      </c>
-      <c r="L203" s="2">
-        <v>0</v>
-      </c>
-      <c r="M203" s="2">
-        <v>0</v>
-      </c>
-      <c r="N203" s="2">
-        <v>0</v>
-      </c>
-      <c r="O203" s="2">
-        <v>0</v>
-      </c>
-      <c r="P203" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q203" s="2">
-        <v>0</v>
-      </c>
-      <c r="R203" s="2">
-        <v>0</v>
-      </c>
-      <c r="S203" s="2">
-        <v>0</v>
-      </c>
-      <c r="T203" s="2">
-        <v>0</v>
-      </c>
-      <c r="U203" s="2">
-        <v>0</v>
-      </c>
-      <c r="V203" s="2">
-        <v>0</v>
-      </c>
-      <c r="W203" s="2">
-        <v>0</v>
-      </c>
-      <c r="X203" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y203" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z203" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA203" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB203" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC203" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD203" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE203" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF203" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG203" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH203" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI203" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ203" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK203" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL203" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM203" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN203" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO203" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP203" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ203" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR203" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS203" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT203" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU203" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AV203" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW203" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AX203" s="5"/>
+      <c r="B203" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="C203" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D203" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="E203" s="18">
+        <v>-1</v>
+      </c>
+      <c r="F203" s="18">
+        <v>-1</v>
+      </c>
+      <c r="G203" s="18">
+        <v>0</v>
+      </c>
+      <c r="H203" s="18">
+        <v>1</v>
+      </c>
+      <c r="I203" s="18">
+        <v>0</v>
+      </c>
+      <c r="J203" s="18">
+        <v>200</v>
+      </c>
+      <c r="K203" s="18">
+        <v>100</v>
+      </c>
+      <c r="L203" s="18">
+        <v>50</v>
+      </c>
+      <c r="M203" s="18">
+        <v>0</v>
+      </c>
+      <c r="N203" s="18">
+        <v>0</v>
+      </c>
+      <c r="O203" s="18">
+        <v>200</v>
+      </c>
+      <c r="P203" s="18">
+        <v>50</v>
+      </c>
+      <c r="Q203" s="18">
+        <v>20</v>
+      </c>
+      <c r="R203" s="18">
+        <v>20</v>
+      </c>
+      <c r="S203" s="18">
+        <v>20</v>
+      </c>
+      <c r="T203" s="18">
+        <v>20</v>
+      </c>
+      <c r="U203" s="18">
+        <v>20</v>
+      </c>
+      <c r="V203" s="18">
+        <v>20</v>
+      </c>
+      <c r="W203" s="18">
+        <v>20</v>
+      </c>
+      <c r="X203" s="18">
+        <v>20</v>
+      </c>
+      <c r="Y203" s="18">
+        <v>20</v>
+      </c>
+      <c r="Z203" s="18">
+        <v>20</v>
+      </c>
+      <c r="AA203" s="18">
+        <v>20</v>
+      </c>
+      <c r="AB203" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC203" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD203" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE203" s="18">
+        <v>20</v>
+      </c>
+      <c r="AF203" s="18">
+        <v>-1</v>
+      </c>
+      <c r="AG203" s="18">
+        <v>2</v>
+      </c>
+      <c r="AH203" s="18">
+        <v>100</v>
+      </c>
+      <c r="AI203" s="18">
+        <v>30</v>
+      </c>
+      <c r="AJ203" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK203" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL203" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM203" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN203" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO203" s="18">
+        <v>50</v>
+      </c>
+      <c r="AP203" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ203" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR203" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS203" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT203" s="18">
+        <v>0</v>
+      </c>
+      <c r="AU203" s="18">
+        <v>-1</v>
+      </c>
+      <c r="AV203" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW203" s="18">
+        <v>-1</v>
+      </c>
+      <c r="AX203" s="18"/>
     </row>
     <row r="204" spans="1:50">
       <c r="A204" s="2">
         <v>199</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>271</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E204" s="2">
         <v>-1</v>
@@ -33195,161 +33219,162 @@
       </c>
       <c r="AX204" s="5"/>
     </row>
-    <row r="205" spans="1:50">
-      <c r="A205">
+    <row r="205" spans="1:50" ht="15">
+      <c r="A205" s="16">
         <v>200</v>
       </c>
-      <c r="B205" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="C205" t="s">
+      <c r="B205" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="C205" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D205" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="E205">
+      <c r="D205" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="E205" s="16">
         <v>98</v>
       </c>
-      <c r="F205">
-        <v>-1</v>
-      </c>
-      <c r="G205">
-        <v>-1</v>
-      </c>
-      <c r="H205">
+      <c r="F205" s="16">
+        <v>-1</v>
+      </c>
+      <c r="G205" s="16">
+        <v>-1</v>
+      </c>
+      <c r="H205" s="16">
         <v>2</v>
       </c>
-      <c r="I205">
-        <v>0</v>
-      </c>
-      <c r="J205">
-        <v>0</v>
-      </c>
-      <c r="K205">
-        <v>0</v>
-      </c>
-      <c r="L205">
-        <v>0</v>
-      </c>
-      <c r="M205">
+      <c r="I205" s="16">
+        <v>0</v>
+      </c>
+      <c r="J205" s="16">
+        <v>30</v>
+      </c>
+      <c r="K205" s="16">
+        <v>0</v>
+      </c>
+      <c r="L205" s="16">
+        <v>0</v>
+      </c>
+      <c r="M205" s="16">
         <v>2</v>
       </c>
-      <c r="N205">
-        <v>0</v>
-      </c>
-      <c r="O205">
+      <c r="N205" s="16">
+        <v>0</v>
+      </c>
+      <c r="O205" s="16">
         <v>30</v>
       </c>
-      <c r="P205">
-        <v>3</v>
-      </c>
-      <c r="Q205">
+      <c r="P205" s="16">
         <v>5</v>
       </c>
-      <c r="R205">
-        <v>3</v>
-      </c>
-      <c r="S205">
-        <v>3</v>
-      </c>
-      <c r="T205">
-        <v>3</v>
-      </c>
-      <c r="U205">
-        <v>3</v>
-      </c>
-      <c r="V205">
-        <v>3</v>
-      </c>
-      <c r="W205">
-        <v>0</v>
-      </c>
-      <c r="X205">
-        <v>0</v>
-      </c>
-      <c r="Y205">
-        <v>0</v>
-      </c>
-      <c r="Z205">
-        <v>0</v>
-      </c>
-      <c r="AA205">
-        <v>0</v>
-      </c>
-      <c r="AB205">
-        <v>0</v>
-      </c>
-      <c r="AC205">
-        <v>0</v>
-      </c>
-      <c r="AD205">
+      <c r="Q205" s="16">
+        <v>5</v>
+      </c>
+      <c r="R205" s="16">
+        <v>5</v>
+      </c>
+      <c r="S205" s="16">
+        <v>5</v>
+      </c>
+      <c r="T205" s="16">
+        <v>5</v>
+      </c>
+      <c r="U205" s="16">
+        <v>5</v>
+      </c>
+      <c r="V205" s="16">
+        <v>5</v>
+      </c>
+      <c r="W205" s="16">
+        <v>5</v>
+      </c>
+      <c r="X205" s="16">
+        <v>5</v>
+      </c>
+      <c r="Y205" s="16">
+        <v>5</v>
+      </c>
+      <c r="Z205" s="16">
+        <v>5</v>
+      </c>
+      <c r="AA205" s="16">
+        <v>5</v>
+      </c>
+      <c r="AB205" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC205" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD205" s="16">
         <v>1</v>
       </c>
-      <c r="AE205">
-        <v>0</v>
-      </c>
-      <c r="AF205">
-        <v>-1</v>
-      </c>
-      <c r="AG205">
+      <c r="AE205" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF205" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AG205" s="16">
         <v>2</v>
       </c>
-      <c r="AH205">
-        <v>0</v>
-      </c>
-      <c r="AI205">
-        <v>0</v>
-      </c>
-      <c r="AJ205">
-        <v>0</v>
-      </c>
-      <c r="AK205">
-        <v>0</v>
-      </c>
-      <c r="AL205">
-        <v>0</v>
-      </c>
-      <c r="AM205">
-        <v>0</v>
-      </c>
-      <c r="AN205">
-        <v>0</v>
-      </c>
-      <c r="AO205">
-        <v>0</v>
-      </c>
-      <c r="AP205">
-        <v>0</v>
-      </c>
-      <c r="AQ205">
-        <v>0</v>
-      </c>
-      <c r="AR205">
-        <v>0</v>
-      </c>
-      <c r="AS205">
+      <c r="AH205" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI205" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ205" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK205" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL205" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM205" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN205" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO205" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP205" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ205" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR205" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS205" s="16">
         <v>10</v>
       </c>
-      <c r="AT205">
+      <c r="AT205" s="16">
         <v>250</v>
       </c>
-      <c r="AU205">
-        <v>-1</v>
-      </c>
-      <c r="AV205">
-        <v>0</v>
-      </c>
-      <c r="AW205">
-        <v>-1</v>
-      </c>
+      <c r="AU205" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AV205" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW205" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AX205" s="16"/>
     </row>
     <row r="206" spans="1:50">
       <c r="A206" s="2">
         <v>201</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>250</v>
@@ -33373,7 +33398,7 @@
         <v>0</v>
       </c>
       <c r="J206" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K206" s="2">
         <v>0</v>
@@ -33391,25 +33416,25 @@
         <v>10</v>
       </c>
       <c r="P206" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q206" s="2">
+        <v>0</v>
+      </c>
+      <c r="R206" s="2">
+        <v>0</v>
+      </c>
+      <c r="S206" s="2">
         <v>2</v>
       </c>
-      <c r="Q206" s="2">
-        <v>0</v>
-      </c>
-      <c r="R206" s="2">
+      <c r="T206" s="2">
+        <v>0</v>
+      </c>
+      <c r="U206" s="2">
         <v>2</v>
       </c>
-      <c r="S206" s="2">
-        <v>0</v>
-      </c>
-      <c r="T206" s="2">
-        <v>0</v>
-      </c>
-      <c r="U206" s="2">
-        <v>0</v>
-      </c>
       <c r="V206" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W206" s="2">
         <v>0</v>
@@ -33498,13 +33523,13 @@
         <v>202</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>250</v>
       </c>
       <c r="D207" s="12" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E207" s="2">
         <v>-1</v>
@@ -33522,7 +33547,7 @@
         <v>0</v>
       </c>
       <c r="J207" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K207" s="2">
         <v>0</v>
@@ -33537,25 +33562,25 @@
         <v>0</v>
       </c>
       <c r="O207" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P207" s="2">
         <v>0</v>
       </c>
       <c r="Q207" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R207" s="2">
         <v>0</v>
       </c>
       <c r="S207" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T207" s="2">
         <v>0</v>
       </c>
       <c r="U207" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V207" s="2">
         <v>0</v>
@@ -33647,13 +33672,13 @@
         <v>203</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>250</v>
       </c>
       <c r="D208" s="12" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E208" s="2">
         <v>-1</v>
@@ -33689,31 +33714,31 @@
         <v>5</v>
       </c>
       <c r="P208" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q208" s="2">
+        <v>0</v>
+      </c>
+      <c r="R208" s="2">
+        <v>1</v>
+      </c>
+      <c r="S208" s="2">
+        <v>0</v>
+      </c>
+      <c r="T208" s="2">
+        <v>0</v>
+      </c>
+      <c r="U208" s="2">
+        <v>0</v>
+      </c>
+      <c r="V208" s="2">
+        <v>0</v>
+      </c>
+      <c r="W208" s="2">
+        <v>0</v>
+      </c>
+      <c r="X208" s="2">
         <v>2</v>
-      </c>
-      <c r="R208" s="2">
-        <v>0</v>
-      </c>
-      <c r="S208" s="2">
-        <v>0</v>
-      </c>
-      <c r="T208" s="2">
-        <v>0</v>
-      </c>
-      <c r="U208" s="2">
-        <v>0</v>
-      </c>
-      <c r="V208" s="2">
-        <v>0</v>
-      </c>
-      <c r="W208" s="2">
-        <v>0</v>
-      </c>
-      <c r="X208" s="2">
-        <v>0</v>
       </c>
       <c r="Y208" s="2">
         <v>0</v>
@@ -33796,13 +33821,13 @@
         <v>204</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>250</v>
       </c>
       <c r="D209" s="12" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E209" s="2">
         <v>-1</v>
@@ -33862,10 +33887,10 @@
         <v>0</v>
       </c>
       <c r="X209" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y209" s="2">
         <v>2</v>
-      </c>
-      <c r="Y209" s="2">
-        <v>0</v>
       </c>
       <c r="Z209" s="2">
         <v>0</v>
@@ -33945,13 +33970,13 @@
         <v>205</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>250</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E210" s="2">
         <v>-1</v>
@@ -34008,13 +34033,13 @@
         <v>0</v>
       </c>
       <c r="W210" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X210" s="2">
         <v>0</v>
       </c>
       <c r="Y210" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z210" s="2">
         <v>0</v>
@@ -34086,155 +34111,6 @@
         <v>0</v>
       </c>
       <c r="AW210" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:49">
-      <c r="A211" s="2">
-        <v>206</v>
-      </c>
-      <c r="B211" s="12" t="s">
-        <v>655</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D211" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="E211" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F211" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G211" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H211" s="2">
-        <v>5</v>
-      </c>
-      <c r="I211" s="2">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2">
-        <v>5</v>
-      </c>
-      <c r="K211" s="2">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2">
-        <v>0</v>
-      </c>
-      <c r="M211" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N211" s="2">
-        <v>0</v>
-      </c>
-      <c r="O211" s="2">
-        <v>5</v>
-      </c>
-      <c r="P211" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q211" s="2">
-        <v>0</v>
-      </c>
-      <c r="R211" s="2">
-        <v>1</v>
-      </c>
-      <c r="S211" s="2">
-        <v>0</v>
-      </c>
-      <c r="T211" s="2">
-        <v>0</v>
-      </c>
-      <c r="U211" s="2">
-        <v>0</v>
-      </c>
-      <c r="V211" s="2">
-        <v>0</v>
-      </c>
-      <c r="W211" s="2">
-        <v>2</v>
-      </c>
-      <c r="X211" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y211" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z211" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA211" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB211" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC211" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD211" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE211" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF211" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AG211" s="2">
-        <v>2</v>
-      </c>
-      <c r="AH211" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI211" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ211" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK211" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL211" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM211" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN211" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO211" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP211" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ211" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR211" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS211" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT211" s="2">
-        <v>50</v>
-      </c>
-      <c r="AU211" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AV211" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW211" s="2">
         <v>-1</v>
       </c>
     </row>
